--- a/filtered-files/filterByKeywordScoreDatas.xlsx
+++ b/filtered-files/filterByKeywordScoreDatas.xlsx
@@ -33,16 +33,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
   <numFmts count="10">
-    <numFmt numFmtId="5" formatCode="&quot;$&quot;#,##0_);\(&quot;$&quot;#,##0\)"/>
-    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
-    <numFmt numFmtId="7" formatCode="&quot;$&quot;#,##0.00_);\(&quot;$&quot;#,##0.00\)"/>
-    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="5" formatCode="&quot;$&quot;#,##0_);(&quot;$&quot;#,##0)"/>
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red](&quot;$&quot;#,##0)"/>
+    <numFmt numFmtId="7" formatCode="&quot;$&quot;#,##0.00_);(&quot;$&quot;#,##0.00)"/>
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red](&quot;$&quot;#,##0.00)"/>
+    <numFmt numFmtId="41" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* (#,##0);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(* #,##0_);_(* (#,##0);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* (#,##0.00);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* (#,##0.00);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
   </numFmts>
   <fonts count="1">
     <font>
@@ -406,7 +406,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:M183"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -419,358 +419,7417 @@
         <v>업무</v>
       </c>
       <c r="C1" t="str">
+        <v>발주기관</v>
+      </c>
+      <c r="D1" t="str">
+        <v>발주시기</v>
+      </c>
+      <c r="E1" t="str">
+        <v>조달방식</v>
+      </c>
+      <c r="F1" t="str">
+        <v>계약방법</v>
+      </c>
+      <c r="G1" t="str">
+        <v>용역명</v>
+      </c>
+      <c r="H1" t="str">
+        <v>용역구분</v>
+      </c>
+      <c r="I1" t="str">
+        <v>예산액(원)</v>
+      </c>
+      <c r="J1" t="str">
+        <v>담당부서</v>
+      </c>
+      <c r="K1" t="str">
+        <v>담당자</v>
+      </c>
+      <c r="L1" t="str">
+        <v>연락처</v>
+      </c>
+      <c r="M1" t="str">
         <v>유형</v>
-      </c>
-      <c r="D1" t="str">
-        <v>발주기관</v>
-      </c>
-      <c r="E1" t="str">
-        <v>발주시기</v>
-      </c>
-      <c r="F1" t="str">
-        <v>조달방식</v>
-      </c>
-      <c r="G1" t="str">
-        <v>계약방법</v>
-      </c>
-      <c r="H1" t="str">
-        <v>용역명</v>
-      </c>
-      <c r="I1" t="str">
-        <v>용역구분</v>
-      </c>
-      <c r="J1" t="str">
-        <v>예산액(원)</v>
-      </c>
-      <c r="K1" t="str">
-        <v>담당부서</v>
-      </c>
-      <c r="L1" t="str">
-        <v>담당자</v>
-      </c>
-      <c r="M1" t="str">
-        <v>연락처</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>2255</v>
+        <v>3104</v>
       </c>
       <c r="B2" t="str">
         <v>용역</v>
       </c>
       <c r="C2" t="str">
-        <v>신규</v>
+        <v>한국수자원공사</v>
       </c>
       <c r="D2" t="str">
-        <v>재단법인강원정보문화산업진흥원</v>
+        <v>2024년 06월</v>
       </c>
       <c r="E2" t="str">
-        <v>2024년 05월</v>
+        <v>자체조달</v>
       </c>
       <c r="F2" t="str">
-        <v>자체조달</v>
+        <v>제한경쟁</v>
       </c>
       <c r="G2" t="str">
-        <v>제한경쟁</v>
+        <v>유체성능시험센터 성능인증시스템 정보통신 감리용역</v>
       </c>
       <c r="H2" t="str">
-        <v>강원정보문화산업진흥원 콘텐츠진흥본부 운영홈페이지 개편 용역</v>
-      </c>
-      <c r="I2" t="str">
-        <v>일반용역</v>
-      </c>
-      <c r="J2">
-        <v>47000000</v>
+        <v>기술용역</v>
+      </c>
+      <c r="I2">
+        <v>84524000</v>
+      </c>
+      <c r="J2" t="str">
+        <v>물종합진단처</v>
       </c>
       <c r="K2" t="str">
-        <v>영상산업지원팀</v>
+        <v>조아란</v>
       </c>
       <c r="L2" t="str">
-        <v>허진수</v>
-      </c>
-      <c r="M2" t="str">
-        <v>033-245-6333</v>
+        <v>042-629-3683</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>1321</v>
+        <v>3111</v>
       </c>
       <c r="B3" t="str">
         <v>용역</v>
       </c>
       <c r="C3" t="str">
-        <v>신규</v>
+        <v>한국산업안전보건공단</v>
       </c>
       <c r="D3" t="str">
-        <v>국토안전관리원</v>
+        <v>2024년 05월</v>
       </c>
       <c r="E3" t="str">
-        <v>2024년 05월</v>
+        <v>자체조달</v>
       </c>
       <c r="F3" t="str">
-        <v>자체조달</v>
+        <v>제한경쟁</v>
       </c>
       <c r="G3" t="str">
-        <v>수의계약</v>
+        <v>안전보건경영시스템(KOSHA-MS) 효과성 제고 방안 연구용역</v>
       </c>
       <c r="H3" t="str">
-        <v>바닥충격음 성능검사 임시홈페이지 구축 사업 감리 사업</v>
-      </c>
-      <c r="I3" t="str">
-        <v>일반용역</v>
-      </c>
-      <c r="J3">
-        <v>21000000</v>
+        <v>일반용역</v>
+      </c>
+      <c r="I3">
+        <v>70000000</v>
+      </c>
+      <c r="J3" t="str">
+        <v>자율안전사업부</v>
       </c>
       <c r="K3" t="str">
-        <v>디지털기획운영실</v>
+        <v>김신호</v>
       </c>
       <c r="L3" t="str">
-        <v>문은지</v>
+        <v>052-703-0634</v>
       </c>
       <c r="M3" t="str">
-        <v>055-771-4989</v>
+        <v>신규</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>1547</v>
+        <v>3115</v>
       </c>
       <c r="B4" t="str">
         <v>용역</v>
       </c>
       <c r="C4" t="str">
-        <v>신규</v>
+        <v>국토교통부 원주지방국토관리청</v>
       </c>
       <c r="D4" t="str">
-        <v>한국건설기술인협회</v>
+        <v>2024년 05월</v>
       </c>
       <c r="E4" t="str">
-        <v>2024년 05월</v>
+        <v>자체조달</v>
       </c>
       <c r="F4" t="str">
-        <v>자체조달</v>
+        <v>일반경쟁</v>
       </c>
       <c r="G4" t="str">
-        <v>제한경쟁</v>
+        <v>2024년도 교량 현장 IoT 계측시스템 설치용역</v>
       </c>
       <c r="H4" t="str">
-        <v>디지털 전환을 위한 홈페이지 및 모바일 서비스 확대용역</v>
-      </c>
-      <c r="I4" t="str">
-        <v>일반용역</v>
-      </c>
-      <c r="J4">
-        <v>1145000000</v>
+        <v>기술용역</v>
+      </c>
+      <c r="I4">
+        <v>966000000</v>
+      </c>
+      <c r="J4" t="str">
+        <v>도로공사과</v>
       </c>
       <c r="K4" t="str">
-        <v>온라인정보지원팀</v>
+        <v>김인규</v>
       </c>
       <c r="L4" t="str">
-        <v>장상연 과장</v>
+        <v>033-769-5855</v>
       </c>
       <c r="M4" t="str">
-        <v>02-3416-9471</v>
+        <v>신규</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>1584</v>
+        <v>3144</v>
       </c>
       <c r="B5" t="str">
         <v>용역</v>
       </c>
       <c r="C5" t="str">
-        <v>신규</v>
+        <v>환경부</v>
       </c>
       <c r="D5" t="str">
-        <v>충청남도</v>
+        <v>2024년 05월</v>
       </c>
       <c r="E5" t="str">
-        <v>2024년 05월</v>
+        <v>자체조달</v>
       </c>
       <c r="F5" t="str">
-        <v>자체조달</v>
+        <v>제한경쟁</v>
       </c>
       <c r="G5" t="str">
-        <v>제한경쟁</v>
+        <v>2024년 물산업 실태조사 및 정보화시스템 운영</v>
       </c>
       <c r="H5" t="str">
-        <v>충청남도 소상공인 사회보험료 홈페이지 개선사업</v>
-      </c>
-      <c r="I5" t="str">
-        <v>일반용역</v>
-      </c>
-      <c r="J5">
-        <v>80000000</v>
+        <v>일반용역</v>
+      </c>
+      <c r="I5">
+        <v>400000000</v>
+      </c>
+      <c r="J5" t="str">
+        <v>물산업협력과</v>
       </c>
       <c r="K5" t="str">
-        <v>경제정책과</v>
+        <v>허승혜</v>
       </c>
       <c r="L5" t="str">
-        <v>윤준녕</v>
+        <v>044-201-7637</v>
       </c>
       <c r="M5" t="str">
-        <v>041-635-2212</v>
+        <v>신규</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>1629</v>
+        <v>3145</v>
       </c>
       <c r="B6" t="str">
         <v>용역</v>
       </c>
       <c r="C6" t="str">
-        <v>신규</v>
+        <v>경기교통공사</v>
       </c>
       <c r="D6" t="str">
-        <v>한국농수산식품유통공사</v>
+        <v>2024년 05월</v>
       </c>
       <c r="E6" t="str">
-        <v>2024년 06월</v>
+        <v>자체조달</v>
       </c>
       <c r="F6" t="str">
-        <v>자체조달</v>
+        <v>제한경쟁</v>
       </c>
       <c r="G6" t="str">
-        <v>제한경쟁</v>
+        <v>경기교통공사 버스 운송비용 정산시스템 유지관리 용역</v>
       </c>
       <c r="H6" t="str">
-        <v>제안요청서(도매시장 통합홈페이지(전자송품장) 고도화 용역</v>
-      </c>
-      <c r="I6" t="str">
-        <v>일반용역</v>
-      </c>
-      <c r="J6">
-        <v>449350000</v>
+        <v>일반용역</v>
+      </c>
+      <c r="I6">
+        <v>404715000</v>
+      </c>
+      <c r="J6" t="str">
+        <v>시내버스준공영팀</v>
       </c>
       <c r="K6" t="str">
-        <v>도매시장부</v>
+        <v>홍전표</v>
       </c>
       <c r="L6" t="str">
-        <v>김종빈</v>
+        <v>031-870-9320</v>
       </c>
       <c r="M6" t="str">
-        <v>061-931-1043</v>
+        <v>신규</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>154</v>
+        <v>3146</v>
       </c>
       <c r="B7" t="str">
         <v>용역</v>
       </c>
       <c r="C7" t="str">
-        <v>신규</v>
+        <v>경기교통공사</v>
       </c>
       <c r="D7" t="str">
-        <v>한국과학기술원</v>
+        <v>2024년 05월</v>
       </c>
       <c r="E7" t="str">
-        <v>2024년 06월</v>
+        <v>자체조달</v>
       </c>
       <c r="F7" t="str">
-        <v>자체조달</v>
+        <v>제한경쟁</v>
       </c>
       <c r="G7" t="str">
-        <v>수의계약</v>
+        <v>경기교통공사 버스 운송비용 정산시스템 유지관리 용역</v>
       </c>
       <c r="H7" t="str">
-        <v>영재키움 프로젝트 홈페이지 기능 개선 용역</v>
-      </c>
-      <c r="I7" t="str">
-        <v>일반용역</v>
-      </c>
-      <c r="J7">
-        <v>30000000</v>
+        <v>일반용역</v>
+      </c>
+      <c r="I7">
+        <v>404715000</v>
+      </c>
+      <c r="J7" t="str">
+        <v>시내버스준공영팀</v>
       </c>
       <c r="K7" t="str">
-        <v>구매팀</v>
+        <v>홍전표</v>
       </c>
       <c r="L7" t="str">
-        <v>이윤정</v>
+        <v>031-870-9320</v>
       </c>
       <c r="M7" t="str">
-        <v>042-350-2333</v>
+        <v>신규</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>421</v>
+        <v>3152</v>
       </c>
       <c r="B8" t="str">
         <v>용역</v>
       </c>
+      <c r="C8" t="str">
+        <v>국토교통부</v>
+      </c>
       <c r="D8" t="str">
-        <v>한국생산기술연구원</v>
+        <v>2024년 05월</v>
       </c>
       <c r="E8" t="str">
-        <v>2024년 05월</v>
+        <v>자체조달</v>
       </c>
       <c r="F8" t="str">
-        <v>자체조달</v>
+        <v>수의계약</v>
       </c>
       <c r="G8" t="str">
-        <v>제한경쟁</v>
+        <v>초경량비행장치 비행경로기록시스템 운영 및 유지관리 업무</v>
       </c>
       <c r="H8" t="str">
-        <v>2024년 기업지원 해피클릭 홈페이지 유지보수 용역</v>
-      </c>
-      <c r="I8" t="str">
-        <v>일반용역</v>
-      </c>
-      <c r="J8">
-        <v>24973296</v>
+        <v>일반용역</v>
+      </c>
+      <c r="I8">
+        <v>12000000</v>
+      </c>
+      <c r="J8" t="str">
+        <v>항공자격팀</v>
+      </c>
+      <c r="K8" t="str">
+        <v>권혁민</v>
+      </c>
+      <c r="L8" t="str">
+        <v>044-201-4257</v>
+      </c>
+      <c r="M8" t="str">
+        <v>신규</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
+        <v>3161</v>
+      </c>
+      <c r="B9" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C9" t="str">
+        <v>사단법인 한국음악저작권협회</v>
+      </c>
+      <c r="D9" t="str">
+        <v>2024년 06월</v>
+      </c>
+      <c r="E9" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="F9" t="str">
+        <v>제한경쟁</v>
+      </c>
+      <c r="G9" t="str">
+        <v>협회 차세대 전산시스템 구축 용역사업 입찰 공고의 건</v>
+      </c>
+      <c r="H9" t="str">
+        <v>기술용역</v>
+      </c>
+      <c r="I9">
+        <v>5650000000</v>
+      </c>
+      <c r="J9" t="str">
+        <v>신탁국 KOMIT팀</v>
+      </c>
+      <c r="K9" t="str">
+        <v>김윤영 팀장</v>
+      </c>
+      <c r="L9" t="str">
+        <v>02-2660-0630</v>
+      </c>
+      <c r="M9" t="str">
+        <v>신규</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>3169</v>
+      </c>
+      <c r="B10" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C10" t="str">
+        <v>한국항공우주연구원</v>
+      </c>
+      <c r="D10" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="E10" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="F10" t="str">
+        <v>제한경쟁</v>
+      </c>
+      <c r="G10" t="str">
+        <v>열진공시험장비 제어시스템 유지보수</v>
+      </c>
+      <c r="H10" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="I10">
+        <v>48000000</v>
+      </c>
+      <c r="J10" t="str">
+        <v>위성총조립시험센터</v>
+      </c>
+      <c r="K10" t="str">
+        <v>서희준</v>
+      </c>
+      <c r="L10" t="str">
+        <v>042-860-2379</v>
+      </c>
+      <c r="M10" t="str">
+        <v>신규</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>3170</v>
+      </c>
+      <c r="B11" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C11" t="str">
+        <v>환경부 화학물질안전원</v>
+      </c>
+      <c r="D11" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="E11" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="F11" t="str">
+        <v>제한경쟁</v>
+      </c>
+      <c r="G11" t="str">
+        <v>2024 화학사고대응정보시스템(CARIS) 개선</v>
+      </c>
+      <c r="H11" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="I11">
+        <v>50000000</v>
+      </c>
+      <c r="J11" t="str">
+        <v>사고대응총괄과</v>
+      </c>
+      <c r="K11" t="str">
+        <v>정성경</v>
+      </c>
+      <c r="L11" t="str">
+        <v>043-830-4132</v>
+      </c>
+      <c r="M11" t="str">
+        <v>신규</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>3177</v>
+      </c>
+      <c r="B12" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C12" t="str">
+        <v>서울특별시 서울시립대학교 산학협력단</v>
+      </c>
+      <c r="D12" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="E12" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="F12" t="str">
+        <v>수의계약</v>
+      </c>
+      <c r="G12" t="str">
+        <v>기둥연결형 가새시스템 거셋플레이트 보강안 반복가력실험을 위한 장비사용</v>
+      </c>
+      <c r="H12" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="I12">
+        <v>12880000</v>
+      </c>
+      <c r="J12" t="str">
+        <v>경영지원팀</v>
+      </c>
+      <c r="K12" t="str">
+        <v>김연희</v>
+      </c>
+      <c r="L12" t="str">
+        <v>02-6490-6388</v>
+      </c>
+      <c r="M12" t="str">
+        <v>신규</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>3210</v>
+      </c>
+      <c r="B13" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C13" t="str">
+        <v>금융감독원</v>
+      </c>
+      <c r="D13" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="E13" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="F13" t="str">
+        <v>일반경쟁</v>
+      </c>
+      <c r="G13" t="str">
+        <v>DART 검토시스템 고도화 사업</v>
+      </c>
+      <c r="H13" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="I13">
+        <v>98661000</v>
+      </c>
+      <c r="J13" t="str">
+        <v>기업공시국 전자공시팀</v>
+      </c>
+      <c r="K13" t="str">
+        <v>장소현 조사역</v>
+      </c>
+      <c r="L13" t="str">
+        <v>02-3145-8616</v>
+      </c>
+      <c r="M13" t="str">
+        <v>신규</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>3247</v>
+      </c>
+      <c r="B14" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C14" t="str">
+        <v>한국에너지공단</v>
+      </c>
+      <c r="D14" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="E14" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="F14" t="str">
+        <v>제한경쟁</v>
+      </c>
+      <c r="G14" t="str">
+        <v>KEA 윤리경영시스템 운영 지원</v>
+      </c>
+      <c r="H14" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="I14">
+        <v>45000000</v>
+      </c>
+      <c r="J14" t="str">
+        <v>준법지원실</v>
+      </c>
+      <c r="K14" t="str">
+        <v>조영주 대리</v>
+      </c>
+      <c r="L14" t="str">
+        <v>052-920-0244</v>
+      </c>
+      <c r="M14" t="str">
+        <v>신규</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>3249</v>
+      </c>
+      <c r="B15" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C15" t="str">
+        <v>경기도</v>
+      </c>
+      <c r="D15" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="E15" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="F15" t="str">
+        <v>제한경쟁</v>
+      </c>
+      <c r="G15" t="str">
+        <v>2024년 경기도 농업기상과 병충해 시스템 고도화 용역</v>
+      </c>
+      <c r="H15" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="I15">
+        <v>90000000</v>
+      </c>
+      <c r="J15" t="str">
+        <v>경기도농업기술원 환경농업연구과</v>
+      </c>
+      <c r="K15" t="str">
+        <v>이영수</v>
+      </c>
+      <c r="L15" t="str">
+        <v>031-8008-9351</v>
+      </c>
+      <c r="M15" t="str">
+        <v>신규</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>3267</v>
+      </c>
+      <c r="B16" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C16" t="str">
+        <v>한국철도기술연구원</v>
+      </c>
+      <c r="D16" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="E16" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="F16" t="str">
+        <v>일반경쟁</v>
+      </c>
+      <c r="G16" t="str">
+        <v>포승~평택선, 중앙선 비디오 모니터링 검측 시스템 및 검측 지원용역</v>
+      </c>
+      <c r="H16" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="I16">
+        <v>81620000</v>
+      </c>
+      <c r="J16" t="str">
+        <v>구매자산실</v>
+      </c>
+      <c r="K16" t="str">
+        <v>장준구</v>
+      </c>
+      <c r="L16" t="str">
+        <v>031-460-5370</v>
+      </c>
+      <c r="M16" t="str">
+        <v>신규</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>3301</v>
+      </c>
+      <c r="B17" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C17" t="str">
+        <v>전북특별자치도교육청</v>
+      </c>
+      <c r="D17" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="E17" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="F17" t="str">
+        <v>수의계약</v>
+      </c>
+      <c r="G17" t="str">
+        <v>2024년 통학차량 관리시스템 소프트웨어 유지관리 용역</v>
+      </c>
+      <c r="H17" t="str">
+        <v>기술용역</v>
+      </c>
+      <c r="I17">
+        <v>41980000</v>
+      </c>
+      <c r="J17" t="str">
+        <v>행정과</v>
+      </c>
+      <c r="K17" t="str">
+        <v>김영웅</v>
+      </c>
+      <c r="L17" t="str">
+        <v>063-239-3561</v>
+      </c>
+      <c r="M17" t="str">
+        <v>신규</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>3317</v>
+      </c>
+      <c r="B18" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C18" t="str">
+        <v>대한상공회의소</v>
+      </c>
+      <c r="D18" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="E18" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="F18" t="str">
+        <v>일반경쟁</v>
+      </c>
+      <c r="G18" t="str">
+        <v>위해상품판매차단시스템 인증마크 제작(리뉴얼)</v>
+      </c>
+      <c r="H18" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="I18">
+        <v>45000000</v>
+      </c>
+      <c r="J18" t="str">
+        <v>총무팀</v>
+      </c>
+      <c r="K18" t="str">
+        <v>오선희</v>
+      </c>
+      <c r="L18" t="str">
+        <v>02-6050-3204</v>
+      </c>
+      <c r="M18" t="str">
+        <v>신규</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>3333</v>
+      </c>
+      <c r="B19" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C19" t="str">
+        <v>명지전문대학</v>
+      </c>
+      <c r="D19" t="str">
+        <v>2024년 06월</v>
+      </c>
+      <c r="E19" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="F19" t="str">
+        <v>일반경쟁</v>
+      </c>
+      <c r="G19" t="str">
+        <v>[혁신] Ubi Campus 기반 조성을 위한 LMS시스템 재구축</v>
+      </c>
+      <c r="H19" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="I19">
+        <v>99000000</v>
+      </c>
+      <c r="J19" t="str">
+        <v>구매시설팀</v>
+      </c>
+      <c r="K19" t="str">
+        <v>홍경수</v>
+      </c>
+      <c r="L19" t="str">
+        <v>02-300-1039</v>
+      </c>
+      <c r="M19" t="str">
+        <v>신규</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>3338</v>
+      </c>
+      <c r="B20" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C20" t="str">
+        <v>아동권리보장원</v>
+      </c>
+      <c r="D20" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="E20" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="F20" t="str">
+        <v>제한경쟁</v>
+      </c>
+      <c r="G20" t="str">
+        <v>경영정보시스템 구축을 위한 BPR/ISP</v>
+      </c>
+      <c r="H20" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="I20">
+        <v>130000000</v>
+      </c>
+      <c r="J20" t="str">
+        <v>경영지원부</v>
+      </c>
+      <c r="K20" t="str">
+        <v>방그리</v>
+      </c>
+      <c r="L20" t="str">
+        <v>02-6454-8533</v>
+      </c>
+      <c r="M20" t="str">
+        <v>신규</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>3349</v>
+      </c>
+      <c r="B21" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C21" t="str">
+        <v>한국에너지기술연구원</v>
+      </c>
+      <c r="D21" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="E21" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="F21" t="str">
+        <v>제한경쟁</v>
+      </c>
+      <c r="G21" t="str">
+        <v>경주풍력발전 피로하중 측정시스템 설치 용역</v>
+      </c>
+      <c r="H21" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="I21">
+        <v>77000000</v>
+      </c>
+      <c r="J21" t="str">
+        <v>풍력연구단</v>
+      </c>
+      <c r="K21" t="str">
+        <v>이진재</v>
+      </c>
+      <c r="L21" t="str">
+        <v>064-800-2233</v>
+      </c>
+      <c r="M21" t="str">
+        <v>신규</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>3360</v>
+      </c>
+      <c r="B22" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C22" t="str">
+        <v>한국고용정보원</v>
+      </c>
+      <c r="D22" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="E22" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="F22" t="str">
+        <v>제한경쟁</v>
+      </c>
+      <c r="G22" t="str">
+        <v>2024년 고용조사분석시스템 운영지원</v>
+      </c>
+      <c r="H22" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="I22">
+        <v>40000000</v>
+      </c>
+      <c r="J22" t="str">
+        <v>고용동향조사분석팀</v>
+      </c>
+      <c r="K22" t="str">
+        <v>김필</v>
+      </c>
+      <c r="L22" t="str">
+        <v>043-870-8258</v>
+      </c>
+      <c r="M22" t="str">
+        <v>신규</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>3369</v>
+      </c>
+      <c r="B23" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C23" t="str">
+        <v>농림축산식품부 한국농수산대학교</v>
+      </c>
+      <c r="D23" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="E23" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="F23" t="str">
+        <v>제한경쟁</v>
+      </c>
+      <c r="G23" t="str">
+        <v>한국농수산대학교 졸업논문 농업경영 계획 분석 및 작성 시스템 구축 용역 공고</v>
+      </c>
+      <c r="H23" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="I23">
+        <v>70000000</v>
+      </c>
+      <c r="J23" t="str">
+        <v>운영지원과</v>
+      </c>
+      <c r="K23" t="str">
+        <v>박진수</v>
+      </c>
+      <c r="L23" t="str">
+        <v>063-238-9415</v>
+      </c>
+      <c r="M23" t="str">
+        <v>신규</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>3411</v>
+      </c>
+      <c r="B24" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C24" t="str">
+        <v>(재)제주테크노파크</v>
+      </c>
+      <c r="D24" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="E24" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="F24" t="str">
+        <v>제한경쟁</v>
+      </c>
+      <c r="G24" t="str">
+        <v>2024년 제주산업정보서비스(JEIS) 시스템 환경 개선 및 유지보수 용역</v>
+      </c>
+      <c r="H24" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="I24">
+        <v>94779000</v>
+      </c>
+      <c r="J24" t="str">
+        <v>기업지원단</v>
+      </c>
+      <c r="K24" t="str">
+        <v>김경태 연구원</v>
+      </c>
+      <c r="L24" t="str">
+        <v>064-720-3077</v>
+      </c>
+      <c r="M24" t="str">
+        <v>신규</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>3412</v>
+      </c>
+      <c r="B25" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C25" t="str">
+        <v>국토교통부 대전지방국토관리청 충주국토관리사무소</v>
+      </c>
+      <c r="D25" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="E25" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="F25" t="str">
+        <v>제한경쟁</v>
+      </c>
+      <c r="G25" t="str">
+        <v>2024년 충주국토 관내 비탈면 모니터링 시스템 구축 용역</v>
+      </c>
+      <c r="H25" t="str">
+        <v>기술용역</v>
+      </c>
+      <c r="I25">
+        <v>1200000000</v>
+      </c>
+      <c r="J25" t="str">
+        <v>운영지원과</v>
+      </c>
+      <c r="K25" t="str">
+        <v>장영은</v>
+      </c>
+      <c r="L25" t="str">
+        <v>043-850-2519</v>
+      </c>
+      <c r="M25" t="str">
+        <v>신규</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>3414</v>
+      </c>
+      <c r="B26" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C26" t="str">
+        <v>국토교통부 대전지방국토관리청 충주국토관리사무소</v>
+      </c>
+      <c r="D26" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="E26" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="F26" t="str">
+        <v>제한경쟁</v>
+      </c>
+      <c r="G26" t="str">
+        <v>2024년 충주국토 관내 비탈면 모니터링 시스템 구축 용역</v>
+      </c>
+      <c r="H26" t="str">
+        <v>기술용역</v>
+      </c>
+      <c r="I26">
+        <v>1200000000</v>
+      </c>
+      <c r="J26" t="str">
+        <v>운영지원과</v>
+      </c>
+      <c r="K26" t="str">
+        <v>장영은</v>
+      </c>
+      <c r="L26" t="str">
+        <v>043-850-2519</v>
+      </c>
+      <c r="M26" t="str">
+        <v>신규</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>3480</v>
+      </c>
+      <c r="B27" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C27" t="str">
+        <v>관세청</v>
+      </c>
+      <c r="D27" t="str">
+        <v>2024년 06월</v>
+      </c>
+      <c r="E27" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="F27" t="str">
+        <v>제한경쟁</v>
+      </c>
+      <c r="G27" t="str">
+        <v>2024년 법규준수도 시스템 고도화 사업 감리</v>
+      </c>
+      <c r="H27" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="I27">
+        <v>69000000</v>
+      </c>
+      <c r="J27" t="str">
+        <v>관세청 관세국경위험관리센타</v>
+      </c>
+      <c r="K27" t="str">
+        <v>박재범</v>
+      </c>
+      <c r="L27" t="str">
+        <v>042-481-1162</v>
+      </c>
+      <c r="M27" t="str">
+        <v>신규</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>3485</v>
+      </c>
+      <c r="B28" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C28" t="str">
+        <v>인천가톨릭대학교</v>
+      </c>
+      <c r="D28" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="E28" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="F28" t="str">
+        <v>제한경쟁</v>
+      </c>
+      <c r="G28" t="str">
+        <v>인천가톨릭대학교 헤이영캠퍼스 구축 시스템 개발 용역</v>
+      </c>
+      <c r="H28" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="I28">
+        <v>12000000</v>
+      </c>
+      <c r="J28" t="str">
+        <v>전산팀</v>
+      </c>
+      <c r="K28" t="str">
+        <v>박남영</v>
+      </c>
+      <c r="L28" t="str">
+        <v>032-870-7041</v>
+      </c>
+      <c r="M28" t="str">
+        <v>신규</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>3605</v>
+      </c>
+      <c r="B29" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C29" t="str">
+        <v>한국원자력안전기술원</v>
+      </c>
+      <c r="D29" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="E29" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="F29" t="str">
+        <v>수의계약</v>
+      </c>
+      <c r="G29" t="str">
+        <v>사이버 방사능방재교육관리시스템 기능개선 및 고도화</v>
+      </c>
+      <c r="H29" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="I29">
+        <v>53710000</v>
+      </c>
+      <c r="J29" t="str">
+        <v>구매자산실</v>
+      </c>
+      <c r="K29" t="str">
+        <v>양현서</v>
+      </c>
+      <c r="L29" t="str">
+        <v>042-603-3094</v>
+      </c>
+      <c r="M29" t="str">
+        <v>신규</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>3616</v>
+      </c>
+      <c r="B30" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C30" t="str">
+        <v>부산신용보증재단</v>
+      </c>
+      <c r="D30" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="E30" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="F30" t="str">
+        <v>제한경쟁</v>
+      </c>
+      <c r="G30" t="str">
+        <v>부산신용보증재단 부동산 약식감정 시스템 도입을 위한 소액수의 견적 제출</v>
+      </c>
+      <c r="H30" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="I30">
+        <v>59188140</v>
+      </c>
+      <c r="J30" t="str">
+        <v>경영지원부</v>
+      </c>
+      <c r="K30" t="str">
+        <v>박기윤과장</v>
+      </c>
+      <c r="L30" t="str">
+        <v>051-860-6605</v>
+      </c>
+      <c r="M30" t="str">
+        <v>신규</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>3630</v>
+      </c>
+      <c r="B31" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C31" t="str">
+        <v>관세청 평택세관</v>
+      </c>
+      <c r="D31" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="E31" t="str">
+        <v>중앙조달</v>
+      </c>
+      <c r="F31" t="str">
+        <v>제한경쟁</v>
+      </c>
+      <c r="G31" t="str">
+        <v>평택항 新국제여객터미널 우범여행자 추적시스템 CCTV 구매 및 설치</v>
+      </c>
+      <c r="H31" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="I31">
+        <v>289000000</v>
+      </c>
+      <c r="J31" t="str">
+        <v>평택세관 통관총괄과</v>
+      </c>
+      <c r="K31" t="str">
+        <v>전소영</v>
+      </c>
+      <c r="L31" t="str">
+        <v>031-8054-7034</v>
+      </c>
+      <c r="M31" t="str">
+        <v>신규</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>3657</v>
+      </c>
+      <c r="B32" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C32" t="str">
+        <v>한국토지주택공사</v>
+      </c>
+      <c r="D32" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="E32" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="F32" t="str">
+        <v>제한경쟁</v>
+      </c>
+      <c r="G32" t="str">
+        <v>2024년 임대등록시스템 운영 및 유지관리</v>
+      </c>
+      <c r="H32" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="I32">
+        <v>1662535441</v>
+      </c>
+      <c r="J32" t="str">
+        <v>건설임대사업처</v>
+      </c>
+      <c r="L32" t="str">
+        <v>0559223395</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>3692</v>
+      </c>
+      <c r="B33" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C33" t="str">
+        <v>한국인터넷진흥원</v>
+      </c>
+      <c r="D33" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="E33" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="F33" t="str">
+        <v>제한경쟁</v>
+      </c>
+      <c r="G33" t="str">
+        <v>IoT 보안인증 운영 관리 시스템 고도화</v>
+      </c>
+      <c r="H33" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="I33">
+        <v>90000000</v>
+      </c>
+      <c r="J33" t="str">
+        <v>융합보안인증팀</v>
+      </c>
+      <c r="K33" t="str">
+        <v>최진우</v>
+      </c>
+      <c r="L33" t="str">
+        <v>02-405-5392</v>
+      </c>
+      <c r="M33" t="str">
+        <v>신규</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>3707</v>
+      </c>
+      <c r="B34" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C34" t="str">
+        <v>한국지식재산보호원</v>
+      </c>
+      <c r="D34" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="E34" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="F34" t="str">
+        <v>제한경쟁</v>
+      </c>
+      <c r="G34" t="str">
+        <v>2024년 IP-NAVI 등 사업운영 시스템 통합 유지관리</v>
+      </c>
+      <c r="H34" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="I34">
+        <v>73000000</v>
+      </c>
+      <c r="J34" t="str">
+        <v>기획조정실</v>
+      </c>
+      <c r="K34" t="str">
+        <v>김정태</v>
+      </c>
+      <c r="L34" t="str">
+        <v>02-2183-5814</v>
+      </c>
+      <c r="M34" t="str">
+        <v>신규</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>3708</v>
+      </c>
+      <c r="B35" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C35" t="str">
+        <v>한국에너지기술평가원</v>
+      </c>
+      <c r="D35" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="E35" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="F35" t="str">
+        <v>제한경쟁</v>
+      </c>
+      <c r="G35" t="str">
+        <v>정보시스템 위탁운영 및 유지보수</v>
+      </c>
+      <c r="H35" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="I35">
+        <v>734000000</v>
+      </c>
+      <c r="J35" t="str">
+        <v>디지털전략실</v>
+      </c>
+      <c r="K35" t="str">
+        <v>여성율 선임연구원</v>
+      </c>
+      <c r="L35" t="str">
+        <v>02-3469-8464</v>
+      </c>
+      <c r="M35" t="str">
+        <v>장기</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>3716</v>
+      </c>
+      <c r="B36" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C36" t="str">
+        <v>한국에너지기술평가원</v>
+      </c>
+      <c r="D36" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="E36" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="F36" t="str">
+        <v>제한경쟁</v>
+      </c>
+      <c r="G36" t="str">
+        <v>사업관리시스템 유지보수</v>
+      </c>
+      <c r="H36" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="I36">
+        <v>533000000</v>
+      </c>
+      <c r="J36" t="str">
+        <v>디지털전략실</v>
+      </c>
+      <c r="K36" t="str">
+        <v>김병민 선임연구원</v>
+      </c>
+      <c r="L36" t="str">
+        <v>02-3469-8463</v>
+      </c>
+      <c r="M36" t="str">
+        <v>장기</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>3719</v>
+      </c>
+      <c r="B37" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C37" t="str">
+        <v>전북특별자치도 순창군</v>
+      </c>
+      <c r="D37" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="E37" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="F37" t="str">
+        <v>수의계약</v>
+      </c>
+      <c r="G37" t="str">
+        <v>2024년 순창군 마을 무선방송시스템 3차 사업 유지보수용역</v>
+      </c>
+      <c r="H37" t="str">
+        <v>기술용역</v>
+      </c>
+      <c r="I37">
+        <v>33161000</v>
+      </c>
+      <c r="J37" t="str">
+        <v>안전재난괍</v>
+      </c>
+      <c r="K37" t="str">
+        <v>이소라</v>
+      </c>
+      <c r="L37" t="str">
+        <v>063-650-1864</v>
+      </c>
+      <c r="M37" t="str">
+        <v>신규</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>3743</v>
+      </c>
+      <c r="B38" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C38" t="str">
+        <v>국토교통부 대전지방국토관리청 논산국토관리사무소</v>
+      </c>
+      <c r="D38" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="E38" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="F38" t="str">
+        <v>제한경쟁</v>
+      </c>
+      <c r="G38" t="str">
+        <v>2024년 논산국토 관내(2권역) 비탈면 모니터링 시스템 구축 용역</v>
+      </c>
+      <c r="H38" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="I38">
+        <v>1200000000</v>
+      </c>
+      <c r="J38" t="str">
+        <v>도로안전운영과</v>
+      </c>
+      <c r="K38" t="str">
+        <v>임용만</v>
+      </c>
+      <c r="L38" t="str">
+        <v>041-730-5832</v>
+      </c>
+      <c r="M38" t="str">
+        <v>신규</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>3744</v>
+      </c>
+      <c r="B39" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C39" t="str">
+        <v>국토교통부 대전지방국토관리청 논산국토관리사무소</v>
+      </c>
+      <c r="D39" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="E39" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="F39" t="str">
+        <v>제한경쟁</v>
+      </c>
+      <c r="G39" t="str">
+        <v>2024년 논산국토 관내(1권역) 비탈면 모니터링 시스템 구축 용역</v>
+      </c>
+      <c r="H39" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="I39">
+        <v>1200000000</v>
+      </c>
+      <c r="J39" t="str">
+        <v>도로안전운영과</v>
+      </c>
+      <c r="K39" t="str">
+        <v>임용만</v>
+      </c>
+      <c r="L39" t="str">
+        <v>041-730-5832</v>
+      </c>
+      <c r="M39" t="str">
+        <v>신규</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>3778</v>
+      </c>
+      <c r="B40" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C40" t="str">
+        <v>민주화운동기념사업회</v>
+      </c>
+      <c r="D40" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="E40" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="F40" t="str">
+        <v>제한경쟁</v>
+      </c>
+      <c r="G40" t="str">
+        <v>사료관리시스템 개선사업</v>
+      </c>
+      <c r="H40" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="I40">
+        <v>47000000</v>
+      </c>
+      <c r="J40" t="str">
+        <v>사료연구팀</v>
+      </c>
+      <c r="K40" t="str">
+        <v>김현채</v>
+      </c>
+      <c r="L40" t="str">
+        <v>031-361-9558</v>
+      </c>
+      <c r="M40" t="str">
+        <v>신규</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>3782</v>
+      </c>
+      <c r="B41" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C41" t="str">
+        <v>한국교통연구원</v>
+      </c>
+      <c r="D41" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="E41" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="F41" t="str">
+        <v>일반경쟁</v>
+      </c>
+      <c r="G41" t="str">
+        <v>민자도로 미납통행료 통합관리시스템 유지보수 및 기능개선</v>
+      </c>
+      <c r="H41" t="str">
+        <v>기술용역</v>
+      </c>
+      <c r="I41">
+        <v>150000000</v>
+      </c>
+      <c r="J41" t="str">
+        <v>민자도로 관리지원센터</v>
+      </c>
+      <c r="K41" t="str">
+        <v>김나윤</v>
+      </c>
+      <c r="L41" t="str">
+        <v>044-211-3110</v>
+      </c>
+      <c r="M41" t="str">
+        <v>신규</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>3834</v>
+      </c>
+      <c r="B42" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C42" t="str">
+        <v>한국농어촌공사 경북지역본부 성주지사</v>
+      </c>
+      <c r="D42" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="E42" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="F42" t="str">
+        <v>수의계약</v>
+      </c>
+      <c r="G42" t="str">
+        <v>2024년 성주지구 농업용수관리자동화시스템 점검·정비 용역</v>
+      </c>
+      <c r="H42" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="I42">
+        <v>4167000</v>
+      </c>
+      <c r="J42" t="str">
+        <v>한국농어촌공사 경북지역본부 성주지사</v>
+      </c>
+      <c r="K42" t="str">
+        <v>김재기</v>
+      </c>
+      <c r="L42" t="str">
+        <v>054-930-0714</v>
+      </c>
+      <c r="M42" t="str">
+        <v>신규</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>3851</v>
+      </c>
+      <c r="B43" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C43" t="str">
+        <v>국토교통부 부산지방국토관리청 포항국토관리사무소</v>
+      </c>
+      <c r="D43" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="E43" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="F43" t="str">
+        <v>제한경쟁</v>
+      </c>
+      <c r="G43" t="str">
+        <v>2024년 포항국토 관내 비탈면 모니터링 시스템 구축용역</v>
+      </c>
+      <c r="H43" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="I43">
+        <v>1200000000</v>
+      </c>
+      <c r="J43" t="str">
+        <v>운영지원과</v>
+      </c>
+      <c r="K43" t="str">
+        <v>박성훈</v>
+      </c>
+      <c r="L43" t="str">
+        <v>054-260-2517</v>
+      </c>
+      <c r="M43" t="str">
+        <v>신규</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>3951</v>
+      </c>
+      <c r="B44" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C44" t="str">
+        <v>한국사회복지공제회</v>
+      </c>
+      <c r="D44" t="str">
+        <v>2024년 06월</v>
+      </c>
+      <c r="E44" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="F44" t="str">
+        <v>제한경쟁</v>
+      </c>
+      <c r="G44" t="str">
+        <v>한국사회복지공제회 저축급여시스템 검증 용역</v>
+      </c>
+      <c r="H44" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="I44">
+        <v>30000000</v>
+      </c>
+      <c r="J44" t="str">
+        <v>회원관리팀</v>
+      </c>
+      <c r="K44" t="str">
+        <v>강춘남</v>
+      </c>
+      <c r="L44" t="str">
+        <v>02-3775-1685</v>
+      </c>
+      <c r="M44" t="str">
+        <v>신규</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>3965</v>
+      </c>
+      <c r="B45" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C45" t="str">
+        <v>한국교통안전공단</v>
+      </c>
+      <c r="D45" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="E45" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="F45" t="str">
+        <v>제한경쟁</v>
+      </c>
+      <c r="G45" t="str">
+        <v>교통약자 이동편의 정보관리시스템 구축 사업 PMO 용역</v>
+      </c>
+      <c r="H45" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="I45">
+        <v>221000000</v>
+      </c>
+      <c r="J45" t="str">
+        <v>모빌리티플랫폼처</v>
+      </c>
+      <c r="K45" t="str">
+        <v>노영문</v>
+      </c>
+      <c r="L45" t="str">
+        <v>054-459-7903</v>
+      </c>
+      <c r="M45" t="str">
+        <v>신규</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>3971</v>
+      </c>
+      <c r="B46" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C46" t="str">
+        <v>한국교통안전공단</v>
+      </c>
+      <c r="D46" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="E46" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="F46" t="str">
+        <v>제한경쟁</v>
+      </c>
+      <c r="G46" t="str">
+        <v>교통약자 이동편의 정보관리시스템 구축 용역</v>
+      </c>
+      <c r="H46" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="I46">
+        <v>2389891762</v>
+      </c>
+      <c r="J46" t="str">
+        <v>모빌리티플랫폼처</v>
+      </c>
+      <c r="K46" t="str">
+        <v>노영문</v>
+      </c>
+      <c r="L46" t="str">
+        <v>054-459-7903</v>
+      </c>
+      <c r="M46" t="str">
+        <v>신규</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>2001</v>
+      </c>
+      <c r="B47" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C47" t="str">
+        <v>국립공원공단월악산국립공원사무소</v>
+      </c>
+      <c r="D47" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="E47" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="F47" t="str">
+        <v>수의계약</v>
+      </c>
+      <c r="G47" t="str">
+        <v>재난·안전사고 예방을 위한 휴대폰 비상충전시스템 고도화</v>
+      </c>
+      <c r="H47" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="I47">
+        <v>14355000</v>
+      </c>
+      <c r="J47" t="str">
+        <v>탐방시설과</v>
+      </c>
+      <c r="K47" t="str">
+        <v>김준희</v>
+      </c>
+      <c r="L47" t="str">
+        <v>043-653-3250</v>
+      </c>
+      <c r="M47" t="str">
+        <v>신규</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>2004</v>
+      </c>
+      <c r="B48" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C48" t="str">
+        <v>한국인터넷진흥원</v>
+      </c>
+      <c r="D48" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="E48" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="F48" t="str">
+        <v>제한경쟁</v>
+      </c>
+      <c r="G48" t="str">
+        <v>인터넷주소 분쟁조정시스템 기능개선 용역</v>
+      </c>
+      <c r="H48" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="I48">
+        <v>15000000</v>
+      </c>
+      <c r="J48" t="str">
+        <v>인터넷주소정책팀</v>
+      </c>
+      <c r="K48" t="str">
+        <v>장시영</v>
+      </c>
+      <c r="L48" t="str">
+        <v>061-820-1559</v>
+      </c>
+      <c r="M48" t="str">
+        <v>신규</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>2017</v>
+      </c>
+      <c r="B49" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C49" t="str">
+        <v>국기원</v>
+      </c>
+      <c r="D49" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="E49" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="F49" t="str">
+        <v>일반경쟁</v>
+      </c>
+      <c r="G49" t="str">
+        <v>중국 전용 국기원 심사 시스템 구축</v>
+      </c>
+      <c r="H49" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="I49">
+        <v>90000000</v>
+      </c>
+      <c r="J49" t="str">
+        <v>경영정보팀</v>
+      </c>
+      <c r="K49" t="str">
+        <v>조민호</v>
+      </c>
+      <c r="L49" t="str">
+        <v>02-3469-0141</v>
+      </c>
+      <c r="M49" t="str">
+        <v>신규</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>2085</v>
+      </c>
+      <c r="B50" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C50" t="str">
+        <v>정보통신산업진흥원</v>
+      </c>
+      <c r="D50" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="E50" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="F50" t="str">
+        <v>제한경쟁</v>
+      </c>
+      <c r="G50" t="str">
+        <v>개도국 정보통신방송전문가 초청연수 정보시스템 유지보수용역</v>
+      </c>
+      <c r="H50" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="I50">
+        <v>40000000</v>
+      </c>
+      <c r="J50" t="str">
+        <v>글로벌협력팀</v>
+      </c>
+      <c r="K50" t="str">
+        <v>김서희 수석</v>
+      </c>
+      <c r="L50" t="str">
+        <v>043-931-5522</v>
+      </c>
+      <c r="M50" t="str">
+        <v>신규</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>2094</v>
+      </c>
+      <c r="B51" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C51" t="str">
+        <v>한국농어촌공사 경북지역본부 고령지사</v>
+      </c>
+      <c r="D51" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="E51" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="F51" t="str">
+        <v>수의계약</v>
+      </c>
+      <c r="G51" t="str">
+        <v>농업용수관리자동화시스템(TM/TC) 점검 정비 용역</v>
+      </c>
+      <c r="H51" t="str">
+        <v>기술용역</v>
+      </c>
+      <c r="I51">
+        <v>3989700</v>
+      </c>
+      <c r="J51" t="str">
+        <v>농지은행관리부</v>
+      </c>
+      <c r="K51" t="str">
+        <v>엄정애</v>
+      </c>
+      <c r="L51" t="str">
+        <v>054-950-0712</v>
+      </c>
+      <c r="M51" t="str">
+        <v>신규</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>2102</v>
+      </c>
+      <c r="B52" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C52" t="str">
+        <v>한국인터넷진흥원</v>
+      </c>
+      <c r="D52" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="E52" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="F52" t="str">
+        <v>제한경쟁</v>
+      </c>
+      <c r="G52" t="str">
+        <v>24년 핵더챌린지 분석플랫폼 시스템 기능 개선 용역</v>
+      </c>
+      <c r="H52" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="I52">
+        <v>110000000</v>
+      </c>
+      <c r="J52" t="str">
+        <v>취약점분석팀</v>
+      </c>
+      <c r="K52" t="str">
+        <v>송원석</v>
+      </c>
+      <c r="L52" t="str">
+        <v>042-405-4966</v>
+      </c>
+      <c r="M52" t="str">
+        <v>신규</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>2108</v>
+      </c>
+      <c r="B53" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C53" t="str">
+        <v>국립공원공단</v>
+      </c>
+      <c r="D53" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="E53" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="F53" t="str">
+        <v>수의계약</v>
+      </c>
+      <c r="G53" t="str">
+        <v>2024년 재해문자전광판 통합운영시스템 유지관리</v>
+      </c>
+      <c r="H53" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="I53">
+        <v>18000000</v>
+      </c>
+      <c r="J53" t="str">
+        <v>재난관리부</v>
+      </c>
+      <c r="K53" t="str">
+        <v>황보정도</v>
+      </c>
+      <c r="L53" t="str">
+        <v>033-769-9592</v>
+      </c>
+      <c r="M53" t="str">
+        <v>신규</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>2174</v>
+      </c>
+      <c r="B54" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C54" t="str">
+        <v>한국항공우주연구원</v>
+      </c>
+      <c r="D54" t="str">
+        <v>2024년 06월</v>
+      </c>
+      <c r="E54" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="F54" t="str">
+        <v>제한경쟁</v>
+      </c>
+      <c r="G54" t="str">
+        <v>다수이종 무인이동체 시스템의 데이터 분산 운용환경 개발</v>
+      </c>
+      <c r="H54" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="I54">
+        <v>54000000</v>
+      </c>
+      <c r="J54" t="str">
+        <v>무인기연구부</v>
+      </c>
+      <c r="K54" t="str">
+        <v>신승찬</v>
+      </c>
+      <c r="L54" t="str">
+        <v>042-860-2362</v>
+      </c>
+      <c r="M54" t="str">
+        <v>신규</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>2183</v>
+      </c>
+      <c r="B55" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C55" t="str">
+        <v>국토교통부</v>
+      </c>
+      <c r="D55" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="E55" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="F55" t="str">
+        <v>제한경쟁</v>
+      </c>
+      <c r="G55" t="str">
+        <v>차세대 부동산종합공부시스템 구축(1차) 개인정보 영향평가</v>
+      </c>
+      <c r="H55" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="I55">
+        <v>50000000</v>
+      </c>
+      <c r="J55" t="str">
+        <v>공간정보제도과</v>
+      </c>
+      <c r="K55" t="str">
+        <v>고은정</v>
+      </c>
+      <c r="L55" t="str">
+        <v>044-201-3486</v>
+      </c>
+      <c r="M55" t="str">
+        <v>신규</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>2235</v>
+      </c>
+      <c r="B56" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C56" t="str">
+        <v>한국기술교육대학교</v>
+      </c>
+      <c r="D56" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="E56" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="F56" t="str">
+        <v>제한경쟁</v>
+      </c>
+      <c r="G56" t="str">
+        <v>논술고사 시스템 임대</v>
+      </c>
+      <c r="H56" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="I56">
+        <v>45000000</v>
+      </c>
+      <c r="J56" t="str">
+        <v>입학팀</v>
+      </c>
+      <c r="K56" t="str">
+        <v>우종태</v>
+      </c>
+      <c r="L56" t="str">
+        <v>041-560-1236</v>
+      </c>
+      <c r="M56" t="str">
+        <v>신규</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>2255</v>
+      </c>
+      <c r="B57" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C57" t="str">
+        <v>재단법인강원정보문화산업진흥원</v>
+      </c>
+      <c r="D57" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="E57" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="F57" t="str">
+        <v>제한경쟁</v>
+      </c>
+      <c r="G57" t="str">
+        <v>강원정보문화산업진흥원 콘텐츠진흥본부 운영홈페이지 개편 용역</v>
+      </c>
+      <c r="H57" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="I57">
+        <v>47000000</v>
+      </c>
+      <c r="J57" t="str">
+        <v>영상산업지원팀</v>
+      </c>
+      <c r="K57" t="str">
+        <v>허진수</v>
+      </c>
+      <c r="L57" t="str">
+        <v>033-245-6333</v>
+      </c>
+      <c r="M57" t="str">
+        <v>신규</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>2305</v>
+      </c>
+      <c r="B58" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C58" t="str">
+        <v>서울특별시</v>
+      </c>
+      <c r="D58" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="E58" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="F58" t="str">
+        <v>제한경쟁</v>
+      </c>
+      <c r="G58" t="str">
+        <v>소방활동 실적 통합관리시스템 구축</v>
+      </c>
+      <c r="H58" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="I58">
+        <v>234753000</v>
+      </c>
+      <c r="J58" t="str">
+        <v>안전지원과</v>
+      </c>
+      <c r="K58" t="str">
+        <v>유복희</v>
+      </c>
+      <c r="L58" t="str">
+        <v>02-3706-1631</v>
+      </c>
+      <c r="M58" t="str">
+        <v>신규</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>2315</v>
+      </c>
+      <c r="B59" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C59" t="str">
+        <v>한국문화예술교육진흥원</v>
+      </c>
+      <c r="D59" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="E59" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="F59" t="str">
+        <v>제한경쟁</v>
+      </c>
+      <c r="G59" t="str">
+        <v>2024 예술강사 통합지원시스템 기능 개선 및 유지 관리</v>
+      </c>
+      <c r="H59" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="I59">
+        <v>532000000</v>
+      </c>
+      <c r="J59" t="str">
+        <v>교육기획팀</v>
+      </c>
+      <c r="K59" t="str">
+        <v>장애란, 임준선</v>
+      </c>
+      <c r="L59" t="str">
+        <v>02-6209-5976</v>
+      </c>
+      <c r="M59" t="str">
+        <v>신규</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>2326</v>
+      </c>
+      <c r="B60" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C60" t="str">
+        <v>한국농어촌공사 경북지역본부 영천지사</v>
+      </c>
+      <c r="D60" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="E60" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="F60" t="str">
+        <v>수의계약</v>
+      </c>
+      <c r="G60" t="str">
+        <v>2024년 농업용수관리자동화시스템(TM/TC) 점검 정비 용역</v>
+      </c>
+      <c r="H60" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="I60">
+        <v>5011630</v>
+      </c>
+      <c r="J60" t="str">
+        <v>한국농어촌공사 영천지사</v>
+      </c>
+      <c r="K60" t="str">
+        <v>안명숙</v>
+      </c>
+      <c r="L60" t="str">
+        <v>054-339-5013</v>
+      </c>
+      <c r="M60" t="str">
+        <v>신규</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>2422</v>
+      </c>
+      <c r="B61" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C61" t="str">
+        <v>경상남도 거창군 농업기술센터</v>
+      </c>
+      <c r="D61" t="str">
+        <v>2024년 06월</v>
+      </c>
+      <c r="E61" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="F61" t="str">
+        <v>일반경쟁</v>
+      </c>
+      <c r="G61" t="str">
+        <v>서북부경남 거점APC 스마트경영지원시스템 구축용역(협상)(긴급)</v>
+      </c>
+      <c r="H61" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="I61">
+        <v>110000000</v>
+      </c>
+      <c r="J61" t="str">
+        <v>농업축산과</v>
+      </c>
+      <c r="K61" t="str">
+        <v>류상현</v>
+      </c>
+      <c r="L61" t="str">
+        <v>055-940-8123</v>
+      </c>
+      <c r="M61" t="str">
+        <v>신규</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>2424</v>
+      </c>
+      <c r="B62" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C62" t="str">
+        <v>한국교육개발원</v>
+      </c>
+      <c r="D62" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="E62" t="str">
+        <v>중앙조달</v>
+      </c>
+      <c r="F62" t="str">
+        <v>제한경쟁</v>
+      </c>
+      <c r="G62" t="str">
+        <v>2024년 온라인 공동교육과정 시스템 운영 및 유지관리</v>
+      </c>
+      <c r="H62" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="I62">
+        <v>195270000</v>
+      </c>
+      <c r="J62" t="str">
+        <v>총무계약실</v>
+      </c>
+      <c r="K62" t="str">
+        <v>김명산</v>
+      </c>
+      <c r="L62" t="str">
+        <v>043-530-9817</v>
+      </c>
+      <c r="M62" t="str">
+        <v>신규</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>2445</v>
+      </c>
+      <c r="B63" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C63" t="str">
+        <v>한국건설기술연구원</v>
+      </c>
+      <c r="D63" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="E63" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="F63" t="str">
+        <v>제한경쟁</v>
+      </c>
+      <c r="G63" t="str">
+        <v>물류시설에 대한 VR 시스템 기반 피난시설 개선의 성능평가</v>
+      </c>
+      <c r="H63" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="I63">
+        <v>39681754</v>
+      </c>
+      <c r="J63" t="str">
+        <v>경영지원본부</v>
+      </c>
+      <c r="K63" t="str">
+        <v>변진호</v>
+      </c>
+      <c r="L63" t="str">
+        <v>031-910-0781</v>
+      </c>
+      <c r="M63" t="str">
+        <v>신규</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>2497</v>
+      </c>
+      <c r="B64" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C64" t="str">
+        <v>경상북도</v>
+      </c>
+      <c r="D64" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="E64" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="F64" t="str">
+        <v>제한경쟁</v>
+      </c>
+      <c r="G64" t="str">
+        <v>2024년도 지휘훈련 시스템 유지보수 용역</v>
+      </c>
+      <c r="H64" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="I64">
+        <v>93572000</v>
+      </c>
+      <c r="J64" t="str">
+        <v>경상북도 소방학교 교육지원과</v>
+      </c>
+      <c r="K64" t="str">
+        <v>한상욱</v>
+      </c>
+      <c r="L64" t="str">
+        <v>054-840-8914</v>
+      </c>
+      <c r="M64" t="str">
+        <v>신규</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>2531</v>
+      </c>
+      <c r="B65" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C65" t="str">
+        <v>대한장애인체육회</v>
+      </c>
+      <c r="D65" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="E65" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="F65" t="str">
+        <v>일반경쟁</v>
+      </c>
+      <c r="G65" t="str">
+        <v>차세대통합정보시스템 구축 감리</v>
+      </c>
+      <c r="H65" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="I65">
+        <v>588000000</v>
+      </c>
+      <c r="J65" t="str">
+        <v>경영지원부</v>
+      </c>
+      <c r="K65" t="str">
+        <v>김진석</v>
+      </c>
+      <c r="L65" t="str">
+        <v>02-3434-4540</v>
+      </c>
+      <c r="M65" t="str">
+        <v>신규</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>2536</v>
+      </c>
+      <c r="B66" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C66" t="str">
+        <v>서울특별시 여성가족재단</v>
+      </c>
+      <c r="D66" t="str">
+        <v>2024년 06월</v>
+      </c>
+      <c r="E66" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="F66" t="str">
+        <v>제한경쟁</v>
+      </c>
+      <c r="G66" t="str">
+        <v>평가시스템 고도화 개발</v>
+      </c>
+      <c r="H66" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="I66">
+        <v>120000000</v>
+      </c>
+      <c r="J66" t="str">
+        <v>전산팀</v>
+      </c>
+      <c r="K66" t="str">
+        <v>이원민</v>
+      </c>
+      <c r="L66" t="str">
+        <v>02-810-5272</v>
+      </c>
+      <c r="M66" t="str">
+        <v>신규</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>2555</v>
+      </c>
+      <c r="B67" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C67" t="str">
+        <v>한국토지주택공사</v>
+      </c>
+      <c r="D67" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="E67" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="F67" t="str">
+        <v>제한경쟁</v>
+      </c>
+      <c r="G67" t="str">
+        <v>용인 첨단시스템반도체 클러스터 국가산업단지 지구관리 경비용역</v>
+      </c>
+      <c r="H67" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="I67">
+        <v>226517000</v>
+      </c>
+      <c r="J67" t="str">
+        <v>용인반도체국가산단사업단(TFT)</v>
+      </c>
+      <c r="L67" t="str">
+        <v>0312506076</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>2612</v>
+      </c>
+      <c r="B68" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C68" t="str">
+        <v>국토교통부</v>
+      </c>
+      <c r="D68" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="E68" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="F68" t="str">
+        <v>수의계약</v>
+      </c>
+      <c r="G68" t="str">
+        <v>교통약자 이동편의 정보관리시스템 구축사업</v>
+      </c>
+      <c r="H68" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="I68">
+        <v>3487000000</v>
+      </c>
+      <c r="J68" t="str">
+        <v>생활교통복지과</v>
+      </c>
+      <c r="K68" t="str">
+        <v>노운용</v>
+      </c>
+      <c r="L68" t="str">
+        <v>044-201-3805</v>
+      </c>
+      <c r="M68" t="str">
+        <v>신규</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>2614</v>
+      </c>
+      <c r="B69" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C69" t="str">
+        <v>인천국제공항공사</v>
+      </c>
+      <c r="D69" t="str">
+        <v>2024년 06월</v>
+      </c>
+      <c r="E69" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="F69" t="str">
+        <v>수의계약</v>
+      </c>
+      <c r="G69" t="str">
+        <v>4단계 공항지상관제시스템(ASDE) 기술지원 용역</v>
+      </c>
+      <c r="H69" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="I69">
+        <v>437000000</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>2618</v>
+      </c>
+      <c r="B70" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C70" t="str">
+        <v>공정거래위원회</v>
+      </c>
+      <c r="D70" t="str">
+        <v>2024년 06월</v>
+      </c>
+      <c r="E70" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="F70" t="str">
+        <v>제한경쟁</v>
+      </c>
+      <c r="G70" t="str">
+        <v>24년 소비자종합지원시스템 챗봇 지식DB 고도화</v>
+      </c>
+      <c r="H70" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="I70">
+        <v>97000000</v>
+      </c>
+      <c r="J70" t="str">
+        <v>소비자안전교육과</v>
+      </c>
+      <c r="K70" t="str">
+        <v>유지용</v>
+      </c>
+      <c r="L70" t="str">
+        <v>044-200-4911</v>
+      </c>
+      <c r="M70" t="str">
+        <v>신규</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>2653</v>
+      </c>
+      <c r="B71" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C71" t="str">
+        <v>울산광역시</v>
+      </c>
+      <c r="D71" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="E71" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="F71" t="str">
+        <v>제한경쟁</v>
+      </c>
+      <c r="G71" t="str">
+        <v>시내버스 재정지원 관리시스템 기능 개선 용역</v>
+      </c>
+      <c r="H71" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="I71">
+        <v>120000000</v>
+      </c>
+      <c r="J71" t="str">
+        <v>버스택시과</v>
+      </c>
+      <c r="K71" t="str">
+        <v>강성진</v>
+      </c>
+      <c r="L71" t="str">
+        <v>052-229-4193</v>
+      </c>
+      <c r="M71" t="str">
+        <v>신규</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>2705</v>
+      </c>
+      <c r="B72" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C72" t="str">
+        <v>사단법인 한국정보통신진흥협회</v>
+      </c>
+      <c r="D72" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="E72" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="F72" t="str">
+        <v>일반경쟁</v>
+      </c>
+      <c r="G72" t="str">
+        <v>형사사법정보시스템 통신이용자정보 통지 연계 기능 개발</v>
+      </c>
+      <c r="H72" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="I72">
+        <v>160000000</v>
+      </c>
+      <c r="J72" t="str">
+        <v>서비스지원팀</v>
+      </c>
+      <c r="K72" t="str">
+        <v>채창일</v>
+      </c>
+      <c r="L72" t="str">
+        <v>02-580-0712</v>
+      </c>
+      <c r="M72" t="str">
+        <v>신규</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>2708</v>
+      </c>
+      <c r="B73" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C73" t="str">
+        <v>전북특별자치도</v>
+      </c>
+      <c r="D73" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="E73" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="F73" t="str">
+        <v>제한경쟁</v>
+      </c>
+      <c r="G73" t="str">
+        <v>전북특별자치도 기업유치 관리시스템 구축 용역</v>
+      </c>
+      <c r="H73" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="I73">
+        <v>143000000</v>
+      </c>
+      <c r="J73" t="str">
+        <v>기업유치추진단</v>
+      </c>
+      <c r="K73" t="str">
+        <v>전재국</v>
+      </c>
+      <c r="L73" t="str">
+        <v>063-280-2751</v>
+      </c>
+      <c r="M73" t="str">
+        <v>신규</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>2722</v>
+      </c>
+      <c r="B74" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C74" t="str">
+        <v>주식회사 위굴리</v>
+      </c>
+      <c r="D74" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="E74" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="F74" t="str">
+        <v>일반경쟁</v>
+      </c>
+      <c r="G74" t="str">
+        <v>횡성 워케이션 플랫폼 사업용 플랫폼 운영웹 및 상담 시스템 구축</v>
+      </c>
+      <c r="H74" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="I74">
+        <v>306000000</v>
+      </c>
+      <c r="J74" t="str">
+        <v>기술연구소</v>
+      </c>
+      <c r="K74" t="str">
+        <v>이대령</v>
+      </c>
+      <c r="L74" t="str">
+        <v>02-6677-7721</v>
+      </c>
+      <c r="M74" t="str">
+        <v>신규</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>2740</v>
+      </c>
+      <c r="B75" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C75" t="str">
+        <v>한국해양과학기술원 부설 선박해양플랜트연구소</v>
+      </c>
+      <c r="D75" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="E75" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="F75" t="str">
+        <v>수의계약</v>
+      </c>
+      <c r="G75" t="str">
+        <v>빙하중 모니터링 시스템 유지보수</v>
+      </c>
+      <c r="H75" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="I75">
+        <v>69960000</v>
+      </c>
+      <c r="J75" t="str">
+        <v>운영지원실</v>
+      </c>
+      <c r="K75" t="str">
+        <v>조한서</v>
+      </c>
+      <c r="L75" t="str">
+        <v>042-866-3162</v>
+      </c>
+      <c r="M75" t="str">
+        <v>신규</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>2743</v>
+      </c>
+      <c r="B76" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C76" t="str">
+        <v>(주)한국거래소 서울사옥</v>
+      </c>
+      <c r="D76" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="E76" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="F76" t="str">
+        <v>일반경쟁</v>
+      </c>
+      <c r="G76" t="str">
+        <v>KRX 스마트워크시스템 운영용역 및 유지보수</v>
+      </c>
+      <c r="H76" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="I76">
+        <v>3641171000</v>
+      </c>
+      <c r="J76" t="str">
+        <v>IT전략부</v>
+      </c>
+      <c r="K76" t="str">
+        <v>백다연</v>
+      </c>
+      <c r="L76" t="str">
+        <v>02-3774-8893</v>
+      </c>
+      <c r="M76" t="str">
+        <v>신규</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>2769</v>
+      </c>
+      <c r="B77" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C77" t="str">
+        <v>한국도로공사</v>
+      </c>
+      <c r="D77" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="E77" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="F77" t="str">
+        <v>수의계약</v>
+      </c>
+      <c r="G77" t="str">
+        <v>차선도색 실시간 확인시스템 개발</v>
+      </c>
+      <c r="H77" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="I77">
+        <v>22000000</v>
+      </c>
+      <c r="J77" t="str">
+        <v>전북본부 교통팀</v>
+      </c>
+      <c r="K77" t="str">
+        <v>이병석</v>
+      </c>
+      <c r="L77" t="str">
+        <v>063-714-6175</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>2775</v>
+      </c>
+      <c r="B78" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C78" t="str">
+        <v>한국원자력통제기술원</v>
+      </c>
+      <c r="D78" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="E78" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="F78" t="str">
+        <v>제한경쟁</v>
+      </c>
+      <c r="G78" t="str">
+        <v>경영정보시스템 기능개선 용역</v>
+      </c>
+      <c r="H78" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="I78">
+        <v>99288790</v>
+      </c>
+      <c r="J78" t="str">
+        <v>경영실</v>
+      </c>
+      <c r="K78" t="str">
+        <v>이동석</v>
+      </c>
+      <c r="L78" t="str">
+        <v>042-860-9716</v>
+      </c>
+      <c r="M78" t="str">
+        <v>신규</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v>2815</v>
+      </c>
+      <c r="B79" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C79" t="str">
+        <v>국토안전관리원</v>
+      </c>
+      <c r="D79" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="E79" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="F79" t="str">
+        <v>제한경쟁</v>
+      </c>
+      <c r="G79" t="str">
+        <v>2024년 지하안전정보시스템 기능개선 사업</v>
+      </c>
+      <c r="H79" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="I79">
+        <v>169600000</v>
+      </c>
+      <c r="J79" t="str">
+        <v>디지털기획운영실</v>
+      </c>
+      <c r="K79" t="str">
+        <v>문은지 과장</v>
+      </c>
+      <c r="L79" t="str">
+        <v>055-771-4989</v>
+      </c>
+      <c r="M79" t="str">
+        <v>신규</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="str">
+        <v>2827</v>
+      </c>
+      <c r="B80" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C80" t="str">
+        <v>한국식품안전관리인증원</v>
+      </c>
+      <c r="D80" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="E80" t="str">
+        <v>중앙조달</v>
+      </c>
+      <c r="F80" t="str">
+        <v>제한경쟁</v>
+      </c>
+      <c r="G80" t="str">
+        <v>생산단계 축산물 스마트 HACCP 시스템 구축</v>
+      </c>
+      <c r="H80" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="I80">
+        <v>1326000000</v>
+      </c>
+      <c r="J80" t="str">
+        <v>기술혁신본부 IT전략팀</v>
+      </c>
+      <c r="K80" t="str">
+        <v>이재원</v>
+      </c>
+      <c r="L80" t="str">
+        <v>043-928-0036</v>
+      </c>
+      <c r="M80" t="str">
+        <v>신규</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="str">
+        <v>2830</v>
+      </c>
+      <c r="B81" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C81" t="str">
+        <v>경상남도</v>
+      </c>
+      <c r="D81" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="E81" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="F81" t="str">
+        <v>수의계약</v>
+      </c>
+      <c r="G81" t="str">
+        <v>2024년 배출가스 5등급 자동차 운행제한 단속시스템 유지보수 용역</v>
+      </c>
+      <c r="H81" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="I81">
+        <v>55830000</v>
+      </c>
+      <c r="J81" t="str">
+        <v>기후대기과</v>
+      </c>
+      <c r="K81" t="str">
+        <v>박수연</v>
+      </c>
+      <c r="L81" t="str">
+        <v>055-211-6694</v>
+      </c>
+      <c r="M81" t="str">
+        <v>신규</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="str">
+        <v>2868</v>
+      </c>
+      <c r="B82" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C82" t="str">
+        <v>전주비전대학 산학협력단</v>
+      </c>
+      <c r="D82" t="str">
+        <v>2024년 06월</v>
+      </c>
+      <c r="E82" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="F82" t="str">
+        <v>일반경쟁</v>
+      </c>
+      <c r="G82" t="str">
+        <v>대학 빅데이터시스템 기반 학생서비스 운영</v>
+      </c>
+      <c r="H82" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="I82">
+        <v>155000000</v>
+      </c>
+      <c r="J82" t="str">
+        <v>총무지원실</v>
+      </c>
+      <c r="K82" t="str">
+        <v>홍창현</v>
+      </c>
+      <c r="L82" t="str">
+        <v>063-220-3625</v>
+      </c>
+      <c r="M82" t="str">
+        <v>신규</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="str">
+        <v>2951</v>
+      </c>
+      <c r="B83" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C83" t="str">
+        <v>서울시 강북구도시관리공단</v>
+      </c>
+      <c r="D83" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="E83" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="F83" t="str">
+        <v>제한경쟁</v>
+      </c>
+      <c r="G83" t="str">
+        <v>공영 및 거주자우선주차 관리시스템 임차용역(협상에 의한 계약), (긴급)</v>
+      </c>
+      <c r="H83" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="I83">
+        <v>130000000</v>
+      </c>
+      <c r="J83" t="str">
+        <v>경영지원팀</v>
+      </c>
+      <c r="K83" t="str">
+        <v>박희준</v>
+      </c>
+      <c r="L83" t="str">
+        <v>02-944-3197</v>
+      </c>
+      <c r="M83" t="str">
+        <v>신규</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="str">
+        <v>2952</v>
+      </c>
+      <c r="B84" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C84" t="str">
+        <v>한국열린사이버대학교</v>
+      </c>
+      <c r="D84" t="str">
+        <v>2024년 06월</v>
+      </c>
+      <c r="E84" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="F84" t="str">
+        <v>제한경쟁</v>
+      </c>
+      <c r="G84" t="str">
+        <v>한국열린사이버대학교 스마트러닝시스템 유지보수 및 고도화</v>
+      </c>
+      <c r="H84" t="str">
+        <v>기술용역</v>
+      </c>
+      <c r="I84">
+        <v>200000000</v>
+      </c>
+      <c r="J84" t="str">
+        <v>행정지원처</v>
+      </c>
+      <c r="K84" t="str">
+        <v>최문경</v>
+      </c>
+      <c r="L84" t="str">
+        <v>02-2197-4291</v>
+      </c>
+      <c r="M84" t="str">
+        <v>신규</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="str">
+        <v>2971</v>
+      </c>
+      <c r="B85" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C85" t="str">
+        <v>국립중앙의료원</v>
+      </c>
+      <c r="D85" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="E85" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="F85" t="str">
+        <v>제한경쟁</v>
+      </c>
+      <c r="G85" t="str">
+        <v>(긴급)「차세대 응급의료정보시스템 구축을 위한 정보화전략계획(ISP)」 용역</v>
+      </c>
+      <c r="H85" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="I85">
+        <v>220000000</v>
+      </c>
+      <c r="J85" t="str">
+        <v>응급의료정보화팀</v>
+      </c>
+      <c r="K85" t="str">
+        <v>김종은</v>
+      </c>
+      <c r="L85" t="str">
+        <v>02-6362-3472</v>
+      </c>
+      <c r="M85" t="str">
+        <v>신규</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="str">
+        <v>2972</v>
+      </c>
+      <c r="B86" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C86" t="str">
+        <v>서울시각장애인 생활이동지원센터</v>
+      </c>
+      <c r="D86" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="E86" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="F86" t="str">
+        <v>제한경쟁</v>
+      </c>
+      <c r="G86" t="str">
+        <v>2024년 복지콜 관제시스템 기능개선사업</v>
+      </c>
+      <c r="H86" t="str">
+        <v>기술용역</v>
+      </c>
+      <c r="I86">
+        <v>762835000</v>
+      </c>
+      <c r="J86" t="str">
+        <v>관제팀</v>
+      </c>
+      <c r="K86" t="str">
+        <v>최우석</v>
+      </c>
+      <c r="L86" t="str">
+        <v>02-2092-0004</v>
+      </c>
+      <c r="M86" t="str">
+        <v>신규</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="str">
+        <v>1032</v>
+      </c>
+      <c r="B87" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C87" t="str">
+        <v>경상남도 거제시</v>
+      </c>
+      <c r="D87" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="E87" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="F87" t="str">
+        <v>수의계약</v>
+      </c>
+      <c r="G87" t="str">
+        <v>2024년 거제시 하수관거 모니터링시스템 유지관리용역</v>
+      </c>
+      <c r="H87" t="str">
+        <v>기술용역</v>
+      </c>
+      <c r="I87">
+        <v>44173800</v>
+      </c>
+      <c r="J87" t="str">
+        <v>상하수도과</v>
+      </c>
+      <c r="K87" t="str">
+        <v>김창수</v>
+      </c>
+      <c r="L87" t="str">
+        <v>055-639-4925</v>
+      </c>
+      <c r="M87" t="str">
+        <v>신규</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="str">
+        <v>1086</v>
+      </c>
+      <c r="B88" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C88" t="str">
+        <v>한국고용노동교육원</v>
+      </c>
+      <c r="D88" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="E88" t="str">
+        <v>중앙조달</v>
+      </c>
+      <c r="F88" t="str">
+        <v>제한경쟁</v>
+      </c>
+      <c r="G88" t="str">
+        <v>2024년도 사업관리 시스템 구축 사업</v>
+      </c>
+      <c r="H88" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="I88">
+        <v>150000000</v>
+      </c>
+      <c r="J88" t="str">
+        <v>경영지원팀</v>
+      </c>
+      <c r="K88" t="str">
+        <v>구본교</v>
+      </c>
+      <c r="L88" t="str">
+        <v>031-760-7799</v>
+      </c>
+      <c r="M88" t="str">
+        <v>신규</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="str">
+        <v>1093</v>
+      </c>
+      <c r="B89" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C89" t="str">
+        <v>한양대학교 기술지주회사(주)</v>
+      </c>
+      <c r="D89" t="str">
+        <v>2024년 06월</v>
+      </c>
+      <c r="E89" t="str">
+        <v>중앙조달</v>
+      </c>
+      <c r="F89" t="str">
+        <v>일반경쟁</v>
+      </c>
+      <c r="G89" t="str">
+        <v>프로스포츠 통합운영관리 모바일 플랫폼 시스템 개발</v>
+      </c>
+      <c r="H89" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="I89">
+        <v>56650000</v>
+      </c>
+      <c r="J89" t="str">
+        <v>경영지원팀</v>
+      </c>
+      <c r="K89" t="str">
+        <v>박소희</v>
+      </c>
+      <c r="L89" t="str">
+        <v>02-2220-4073</v>
+      </c>
+      <c r="M89" t="str">
+        <v>신규</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="str">
+        <v>1113</v>
+      </c>
+      <c r="B90" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C90" t="str">
+        <v>파주도시관광공사</v>
+      </c>
+      <c r="D90" t="str">
+        <v>2024년 06월</v>
+      </c>
+      <c r="E90" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="F90" t="str">
+        <v>제한경쟁</v>
+      </c>
+      <c r="G90" t="str">
+        <v>종량제봉투 판매관리 전산시스템 개선사업</v>
+      </c>
+      <c r="H90" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="I90">
+        <v>55000000</v>
+      </c>
+      <c r="J90" t="str">
+        <v>재무회계팀</v>
+      </c>
+      <c r="K90" t="str">
+        <v>권혜인</v>
+      </c>
+      <c r="L90" t="str">
+        <v>031-950-1866</v>
+      </c>
+      <c r="M90" t="str">
+        <v>신규</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="str">
+        <v>1131</v>
+      </c>
+      <c r="B91" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C91" t="str">
+        <v>한국에너지공단</v>
+      </c>
+      <c r="D91" t="str">
+        <v>2024년 06월</v>
+      </c>
+      <c r="E91" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="F91" t="str">
+        <v>제한경쟁</v>
+      </c>
+      <c r="G91" t="str">
+        <v>재생E 사용 관리시스템 기능 개발</v>
+      </c>
+      <c r="H91" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="I91">
+        <v>90000000</v>
+      </c>
+      <c r="J91" t="str">
+        <v>신재생정책실</v>
+      </c>
+      <c r="K91" t="str">
+        <v>천재건</v>
+      </c>
+      <c r="L91" t="str">
+        <v>052-920-0907</v>
+      </c>
+      <c r="M91" t="str">
+        <v>신규</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="str">
+        <v>1136</v>
+      </c>
+      <c r="B92" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C92" t="str">
+        <v>한국원자력의학원</v>
+      </c>
+      <c r="D92" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="E92" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="F92" t="str">
+        <v>수의계약</v>
+      </c>
+      <c r="G92" t="str">
+        <v>국가RI신약센터 GMP 자동제어시스템 유지보수 용역</v>
+      </c>
+      <c r="H92" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="I92">
+        <v>127440000</v>
+      </c>
+      <c r="J92" t="str">
+        <v>구매팀</v>
+      </c>
+      <c r="K92" t="str">
+        <v>장종민</v>
+      </c>
+      <c r="L92" t="str">
+        <v>02-970-2950</v>
+      </c>
+      <c r="M92" t="str">
+        <v>신규</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="str">
+        <v>1214</v>
+      </c>
+      <c r="B93" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C93" t="str">
+        <v>외교부</v>
+      </c>
+      <c r="D93" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="E93" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="F93" t="str">
+        <v>제한경쟁</v>
+      </c>
+      <c r="G93" t="str">
+        <v>2024년 정보시스템 모의해킹 및 취약점 분석</v>
+      </c>
+      <c r="H93" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="I93">
+        <v>45000000</v>
+      </c>
+      <c r="J93" t="str">
+        <v>외교정보보안담당관실</v>
+      </c>
+      <c r="K93" t="str">
+        <v>류병규</v>
+      </c>
+      <c r="L93" t="str">
+        <v>02-2100-6877</v>
+      </c>
+      <c r="M93" t="str">
+        <v>신규</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="str">
+        <v>1255</v>
+      </c>
+      <c r="B94" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C94" t="str">
+        <v>서울물재생시설공단</v>
+      </c>
+      <c r="D94" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="E94" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="F94" t="str">
+        <v>제한경쟁</v>
+      </c>
+      <c r="G94" t="str">
+        <v>서울물재생시설공단 기록관리시스템 구축(협상에 의한 계약)</v>
+      </c>
+      <c r="H94" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="I94">
+        <v>376606000</v>
+      </c>
+      <c r="J94" t="str">
+        <v>총무인사팀</v>
+      </c>
+      <c r="K94" t="str">
+        <v>김지희</v>
+      </c>
+      <c r="L94" t="str">
+        <v>02-3410-9896</v>
+      </c>
+      <c r="M94" t="str">
+        <v>신규</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="str">
+        <v>1266</v>
+      </c>
+      <c r="B95" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C95" t="str">
+        <v>환경부 국립환경과학원</v>
+      </c>
+      <c r="D95" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="E95" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="F95" t="str">
+        <v>제한경쟁</v>
+      </c>
+      <c r="G95" t="str">
+        <v>전국오염원조사 DB 및 웹 시스템 구축(Ⅷ) 전산감리</v>
+      </c>
+      <c r="H95" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="I95">
+        <v>33540000</v>
+      </c>
+      <c r="J95" t="str">
+        <v>유역총량연구과</v>
+      </c>
+      <c r="K95" t="str">
+        <v>박민지</v>
+      </c>
+      <c r="L95" t="str">
+        <v>032-560-7369</v>
+      </c>
+      <c r="M95" t="str">
+        <v>신규</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="str">
+        <v>1271</v>
+      </c>
+      <c r="B96" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C96" t="str">
+        <v>대경대학산학협력단</v>
+      </c>
+      <c r="D96" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="E96" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="F96" t="str">
+        <v>제한경쟁</v>
+      </c>
+      <c r="G96" t="str">
+        <v>대경대학교 원격학습 데이터베이스관리시스템[DBMS] 고도화 사업 용역</v>
+      </c>
+      <c r="H96" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="I96">
+        <v>300000000</v>
+      </c>
+      <c r="J96" t="str">
+        <v>총무처</v>
+      </c>
+      <c r="K96" t="str">
+        <v>황용선</v>
+      </c>
+      <c r="L96" t="str">
+        <v>053-850-1312</v>
+      </c>
+      <c r="M96" t="str">
+        <v>신규</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="str">
+        <v>1284</v>
+      </c>
+      <c r="B97" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C97" t="str">
+        <v>농림축산식품부</v>
+      </c>
+      <c r="D97" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="E97" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="F97" t="str">
+        <v>제한경쟁</v>
+      </c>
+      <c r="G97" t="str">
+        <v>2024년 통합성과관리시스템 유지·보수 용역</v>
+      </c>
+      <c r="H97" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="I97">
+        <v>49000000</v>
+      </c>
+      <c r="J97" t="str">
+        <v>운영지원과</v>
+      </c>
+      <c r="K97" t="str">
+        <v>구교민</v>
+      </c>
+      <c r="L97" t="str">
+        <v>044-201-1288</v>
+      </c>
+      <c r="M97" t="str">
+        <v>신규</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="str">
+        <v>1321</v>
+      </c>
+      <c r="B98" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C98" t="str">
+        <v>국토안전관리원</v>
+      </c>
+      <c r="D98" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="E98" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="F98" t="str">
+        <v>수의계약</v>
+      </c>
+      <c r="G98" t="str">
+        <v>바닥충격음 성능검사 임시홈페이지 구축 사업 감리 사업</v>
+      </c>
+      <c r="H98" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="I98">
+        <v>21000000</v>
+      </c>
+      <c r="J98" t="str">
+        <v>디지털기획운영실</v>
+      </c>
+      <c r="K98" t="str">
+        <v>문은지</v>
+      </c>
+      <c r="L98" t="str">
+        <v>055-771-4989</v>
+      </c>
+      <c r="M98" t="str">
+        <v>신규</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="str">
+        <v>1323</v>
+      </c>
+      <c r="B99" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C99" t="str">
+        <v>한국정보통신공사협회</v>
+      </c>
+      <c r="D99" t="str">
+        <v>2024년 06월</v>
+      </c>
+      <c r="E99" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="F99" t="str">
+        <v>제한경쟁</v>
+      </c>
+      <c r="G99" t="str">
+        <v>모바일 전자고지 시스템 개발</v>
+      </c>
+      <c r="H99" t="str">
+        <v>기술용역</v>
+      </c>
+      <c r="I99">
+        <v>55000000</v>
+      </c>
+      <c r="J99" t="str">
+        <v>운영지원처</v>
+      </c>
+      <c r="K99" t="str">
+        <v>노경태</v>
+      </c>
+      <c r="L99" t="str">
+        <v>02-3488-6123</v>
+      </c>
+      <c r="M99" t="str">
+        <v>신규</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="str">
+        <v>1372</v>
+      </c>
+      <c r="B100" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C100" t="str">
+        <v>한국지역정보개발원</v>
+      </c>
+      <c r="D100" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="E100" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="F100" t="str">
+        <v>수의계약</v>
+      </c>
+      <c r="G100" t="str">
+        <v>2024년 지방행정공통시스템 유지관리 감리용역</v>
+      </c>
+      <c r="H100" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="I100">
+        <v>70000000</v>
+      </c>
+      <c r="J100" t="str">
+        <v>행정정보부</v>
+      </c>
+      <c r="K100" t="str">
+        <v>허수영</v>
+      </c>
+      <c r="L100" t="str">
+        <v>02-2031-9514</v>
+      </c>
+      <c r="M100" t="str">
+        <v>신규</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="str">
+        <v>1428</v>
+      </c>
+      <c r="B101" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C101" t="str">
+        <v>(주)한청알에프</v>
+      </c>
+      <c r="D101" t="str">
+        <v>2024년 06월</v>
+      </c>
+      <c r="E101" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="F101" t="str">
+        <v>제한경쟁</v>
+      </c>
+      <c r="G101" t="str">
+        <v>수봉펌프 시스템 제조 및 설치 용역</v>
+      </c>
+      <c r="H101" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="I101">
+        <v>10710000</v>
+      </c>
+      <c r="J101" t="str">
+        <v>연구소</v>
+      </c>
+      <c r="K101" t="str">
+        <v>양수원</v>
+      </c>
+      <c r="L101" t="str">
+        <v>010-2738-7189</v>
+      </c>
+      <c r="M101" t="str">
+        <v>신규</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="str">
+        <v>1429</v>
+      </c>
+      <c r="B102" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C102" t="str">
+        <v>(주)한청알에프</v>
+      </c>
+      <c r="D102" t="str">
+        <v>2024년 06월</v>
+      </c>
+      <c r="E102" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="F102" t="str">
+        <v>제한경쟁</v>
+      </c>
+      <c r="G102" t="str">
+        <v>DI 제조 시스템 제작 공급</v>
+      </c>
+      <c r="H102" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="I102">
+        <v>24181000</v>
+      </c>
+      <c r="J102" t="str">
+        <v>연구소</v>
+      </c>
+      <c r="K102" t="str">
+        <v>양수원</v>
+      </c>
+      <c r="L102" t="str">
+        <v>010-2738-7189</v>
+      </c>
+      <c r="M102" t="str">
+        <v>신규</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="str">
+        <v>1443</v>
+      </c>
+      <c r="B103" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C103" t="str">
+        <v>국립생태원</v>
+      </c>
+      <c r="D103" t="str">
+        <v>2024년 06월</v>
+      </c>
+      <c r="E103" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="F103" t="str">
+        <v>제한경쟁</v>
+      </c>
+      <c r="G103" t="str">
+        <v>자연환경조사 원자료 입력시스템 개선</v>
+      </c>
+      <c r="H103" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="I103">
+        <v>250000000</v>
+      </c>
+      <c r="J103" t="str">
+        <v>자연환경조사팀</v>
+      </c>
+      <c r="K103" t="str">
+        <v>고석열</v>
+      </c>
+      <c r="L103" t="str">
+        <v>041-950-5833</v>
+      </c>
+      <c r="M103" t="str">
+        <v>신규</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="str">
+        <v>1447</v>
+      </c>
+      <c r="B104" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C104" t="str">
+        <v>질병관리청</v>
+      </c>
+      <c r="D104" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="E104" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="F104" t="str">
+        <v>제한경쟁</v>
+      </c>
+      <c r="G104" t="str">
+        <v>[정책,135] 항생제 적정 사용관리 수가 지급 평가 시스템 개발</v>
+      </c>
+      <c r="H104" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="I104">
+        <v>40000000</v>
+      </c>
+      <c r="J104" t="str">
+        <v>항생제내성관리과</v>
+      </c>
+      <c r="K104" t="str">
+        <v>이화영</v>
+      </c>
+      <c r="L104" t="str">
+        <v>043-719-7533</v>
+      </c>
+      <c r="M104" t="str">
+        <v>신규</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="str">
+        <v>1519</v>
+      </c>
+      <c r="B105" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C105" t="str">
+        <v>한국표준과학연구원</v>
+      </c>
+      <c r="D105" t="str">
+        <v>2024년 06월</v>
+      </c>
+      <c r="E105" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="F105" t="str">
+        <v>제한경쟁</v>
+      </c>
+      <c r="G105" t="str">
+        <v>측정표준 연구성과 전주기 관리, 활용을 위한 정보시스템 구축</v>
+      </c>
+      <c r="H105" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="I105">
+        <v>100000000</v>
+      </c>
+      <c r="J105" t="str">
+        <v>구매자산실</v>
+      </c>
+      <c r="K105" t="str">
+        <v>장재민</v>
+      </c>
+      <c r="L105" t="str">
+        <v>042-868-5536</v>
+      </c>
+      <c r="M105" t="str">
+        <v>신규</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="str">
+        <v>1522</v>
+      </c>
+      <c r="B106" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C106" t="str">
+        <v>국가유산청 국립문화유산연구원</v>
+      </c>
+      <c r="D106" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="E106" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="F106" t="str">
+        <v>제한경쟁</v>
+      </c>
+      <c r="G106" t="str">
+        <v>국립문화유산연구원 연구과제관리시스템 기능 개선</v>
+      </c>
+      <c r="H106" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="I106">
+        <v>60000000</v>
+      </c>
+      <c r="J106" t="str">
+        <v>연구기획과</v>
+      </c>
+      <c r="K106" t="str">
+        <v>송지애</v>
+      </c>
+      <c r="L106" t="str">
+        <v>042-860-9158</v>
+      </c>
+      <c r="M106" t="str">
+        <v>신규</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="str">
+        <v>1529</v>
+      </c>
+      <c r="B107" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C107" t="str">
+        <v>가톨릭대학교 성심교정</v>
+      </c>
+      <c r="D107" t="str">
+        <v>2024년 06월</v>
+      </c>
+      <c r="E107" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="F107" t="str">
+        <v>제한경쟁</v>
+      </c>
+      <c r="G107" t="str">
+        <v>[대학혁신지원사업] 가톨릭대학교 CUK 혁신허브 디지털 운영시스템 구축</v>
+      </c>
+      <c r="H107" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="I107">
+        <v>262634000</v>
+      </c>
+      <c r="J107" t="str">
+        <v>총무팀</v>
+      </c>
+      <c r="K107" t="str">
+        <v>권이선</v>
+      </c>
+      <c r="L107" t="str">
+        <v>02-2164-4172</v>
+      </c>
+      <c r="M107" t="str">
+        <v>신규</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="str">
+        <v>1538</v>
+      </c>
+      <c r="B108" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C108" t="str">
+        <v>식품의약품안전처</v>
+      </c>
+      <c r="D108" t="str">
+        <v>2024년 06월</v>
+      </c>
+      <c r="E108" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="F108" t="str">
+        <v>제한경쟁</v>
+      </c>
+      <c r="G108" t="str">
+        <v>2024년도 수입식품통합정보시스템 고도화 감리</v>
+      </c>
+      <c r="H108" t="str">
+        <v>기술용역</v>
+      </c>
+      <c r="I108">
+        <v>30000000</v>
+      </c>
+      <c r="J108" t="str">
+        <v>디지털수입안전기획팀</v>
+      </c>
+      <c r="K108" t="str">
+        <v>정진수</v>
+      </c>
+      <c r="L108" t="str">
+        <v>043-719-6175</v>
+      </c>
+      <c r="M108" t="str">
+        <v>신규</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="str">
+        <v>1547</v>
+      </c>
+      <c r="B109" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C109" t="str">
+        <v>한국건설기술인협회</v>
+      </c>
+      <c r="D109" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="E109" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="F109" t="str">
+        <v>제한경쟁</v>
+      </c>
+      <c r="G109" t="str">
+        <v>디지털 전환을 위한 홈페이지 및 모바일 서비스 확대용역</v>
+      </c>
+      <c r="H109" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="I109">
+        <v>1145000000</v>
+      </c>
+      <c r="J109" t="str">
+        <v>온라인정보지원팀</v>
+      </c>
+      <c r="K109" t="str">
+        <v>장상연 과장</v>
+      </c>
+      <c r="L109" t="str">
+        <v>02-3416-9471</v>
+      </c>
+      <c r="M109" t="str">
+        <v>신규</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="str">
+        <v>1552</v>
+      </c>
+      <c r="B110" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C110" t="str">
+        <v>서울교통공사</v>
+      </c>
+      <c r="D110" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="E110" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="F110" t="str">
+        <v>수의계약</v>
+      </c>
+      <c r="G110" t="str">
+        <v>9호선 2,3단계 역사 공기질관리시스템 유지관리 용역</v>
+      </c>
+      <c r="H110" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="I110">
+        <v>318741730</v>
+      </c>
+      <c r="J110" t="str">
+        <v>9호선운영부문</v>
+      </c>
+      <c r="K110" t="str">
+        <v>류미</v>
+      </c>
+      <c r="L110" t="str">
+        <v>02-2656-2727</v>
+      </c>
+      <c r="M110" t="str">
+        <v>신규</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="str">
+        <v>1578</v>
+      </c>
+      <c r="B111" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C111" t="str">
+        <v>국토교통부 부산지방국토관리청 영주국토관리사무소</v>
+      </c>
+      <c r="D111" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="E111" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="F111" t="str">
+        <v>일반경쟁</v>
+      </c>
+      <c r="G111" t="str">
+        <v>2024년 영주국토 관내 비탈면 모니터링 시스템 구축 용역</v>
+      </c>
+      <c r="H111" t="str">
+        <v>기술용역</v>
+      </c>
+      <c r="I111">
+        <v>900000000</v>
+      </c>
+      <c r="J111" t="str">
+        <v>도로안전운영과</v>
+      </c>
+      <c r="K111" t="str">
+        <v>인지만</v>
+      </c>
+      <c r="L111" t="str">
+        <v>054-630-0052</v>
+      </c>
+      <c r="M111" t="str">
+        <v>신규</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="str">
+        <v>1584</v>
+      </c>
+      <c r="B112" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C112" t="str">
+        <v>충청남도</v>
+      </c>
+      <c r="D112" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="E112" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="F112" t="str">
+        <v>제한경쟁</v>
+      </c>
+      <c r="G112" t="str">
+        <v>충청남도 소상공인 사회보험료 홈페이지 개선사업</v>
+      </c>
+      <c r="H112" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="I112">
+        <v>80000000</v>
+      </c>
+      <c r="J112" t="str">
+        <v>경제정책과</v>
+      </c>
+      <c r="K112" t="str">
+        <v>윤준녕</v>
+      </c>
+      <c r="L112" t="str">
+        <v>041-635-2212</v>
+      </c>
+      <c r="M112" t="str">
+        <v>신규</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="str">
+        <v>1587</v>
+      </c>
+      <c r="B113" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C113" t="str">
+        <v>한국발명진흥회</v>
+      </c>
+      <c r="D113" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="E113" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="F113" t="str">
+        <v>제한경쟁</v>
+      </c>
+      <c r="G113" t="str">
+        <v>2024년 지식재산사업관리시스템 유지관리</v>
+      </c>
+      <c r="H113" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="I113">
+        <v>62000000</v>
+      </c>
+      <c r="J113" t="str">
+        <v>경영지원실</v>
+      </c>
+      <c r="K113" t="str">
+        <v>명연주</v>
+      </c>
+      <c r="L113" t="str">
+        <v>02-3459-2714</v>
+      </c>
+      <c r="M113" t="str">
+        <v>신규</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="str">
+        <v>1629</v>
+      </c>
+      <c r="B114" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C114" t="str">
+        <v>한국농수산식품유통공사</v>
+      </c>
+      <c r="D114" t="str">
+        <v>2024년 06월</v>
+      </c>
+      <c r="E114" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="F114" t="str">
+        <v>제한경쟁</v>
+      </c>
+      <c r="G114" t="str">
+        <v>제안요청서(도매시장 통합홈페이지(전자송품장) 고도화 용역</v>
+      </c>
+      <c r="H114" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="I114">
+        <v>449350000</v>
+      </c>
+      <c r="J114" t="str">
+        <v>도매시장부</v>
+      </c>
+      <c r="K114" t="str">
+        <v>김종빈</v>
+      </c>
+      <c r="L114" t="str">
+        <v>061-931-1043</v>
+      </c>
+      <c r="M114" t="str">
+        <v>신규</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="str">
+        <v>1698</v>
+      </c>
+      <c r="B115" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C115" t="str">
+        <v>해양수산부 국립수산과학원</v>
+      </c>
+      <c r="D115" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="E115" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="F115" t="str">
+        <v>제한경쟁</v>
+      </c>
+      <c r="G115" t="str">
+        <v>동해안 정치망어업 전자모니터링시스템(EMS) 관리</v>
+      </c>
+      <c r="H115" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="I115">
+        <v>60000000</v>
+      </c>
+      <c r="J115" t="str">
+        <v>원양자원과</v>
+      </c>
+      <c r="K115" t="str">
+        <v>권유정</v>
+      </c>
+      <c r="L115" t="str">
+        <v>051-720-2331</v>
+      </c>
+      <c r="M115" t="str">
+        <v>신규</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="str">
+        <v>1699</v>
+      </c>
+      <c r="B116" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C116" t="str">
+        <v>서해철도 주식회사</v>
+      </c>
+      <c r="D116" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="E116" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="F116" t="str">
+        <v>제한경쟁</v>
+      </c>
+      <c r="G116" t="str">
+        <v>전화교환설비 녹취 고지음 송출 시스템 구축(라이센스 포함)</v>
+      </c>
+      <c r="H116" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="I116">
+        <v>33780000</v>
+      </c>
+      <c r="J116" t="str">
+        <v>운영지원팀</v>
+      </c>
+      <c r="K116" t="str">
+        <v>김민호</v>
+      </c>
+      <c r="L116" t="str">
+        <v>031-5183-2638</v>
+      </c>
+      <c r="M116" t="str">
+        <v>신규</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="str">
+        <v>1720</v>
+      </c>
+      <c r="B117" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C117" t="str">
+        <v>중소벤처기업진흥공단</v>
+      </c>
+      <c r="D117" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="E117" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="F117" t="str">
+        <v>제한경쟁</v>
+      </c>
+      <c r="G117" t="str">
+        <v>신용위험평가모형 전면개편 시스템 고도화 용역</v>
+      </c>
+      <c r="H117" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="I117">
+        <v>99510000</v>
+      </c>
+      <c r="J117" t="str">
+        <v>고객가치실</v>
+      </c>
+      <c r="K117" t="str">
+        <v>유재상</v>
+      </c>
+      <c r="L117" t="str">
+        <v>055-751-9337</v>
+      </c>
+      <c r="M117" t="str">
+        <v>신규</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="str">
+        <v>1732</v>
+      </c>
+      <c r="B118" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C118" t="str">
+        <v>한국도로공사</v>
+      </c>
+      <c r="D118" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="E118" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="F118" t="str">
+        <v>수의계약</v>
+      </c>
+      <c r="G118" t="str">
+        <v>영업소 고객업무 무인시스템 유지관리 용역</v>
+      </c>
+      <c r="H118" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="I118">
+        <v>22000000</v>
+      </c>
+      <c r="J118" t="str">
+        <v>영업처 영업운영팀</v>
+      </c>
+      <c r="K118" t="str">
+        <v>임채호</v>
+      </c>
+      <c r="L118" t="str">
+        <v>054-811-2232</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="str">
+        <v>1738</v>
+      </c>
+      <c r="B119" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C119" t="str">
+        <v>대전광역시교육청</v>
+      </c>
+      <c r="D119" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="E119" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="F119" t="str">
+        <v>제한경쟁</v>
+      </c>
+      <c r="G119" t="str">
+        <v>2025학년도 고등학교 입학전형 시스템 기능개선 및 GIS현행화</v>
+      </c>
+      <c r="H119" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="I119">
+        <v>99840000</v>
+      </c>
+      <c r="J119" t="str">
+        <v>중등교육과</v>
+      </c>
+      <c r="K119" t="str">
+        <v>김동현</v>
+      </c>
+      <c r="L119" t="str">
+        <v>042-616-8316</v>
+      </c>
+      <c r="M119" t="str">
+        <v>신규</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="str">
+        <v>1755</v>
+      </c>
+      <c r="B120" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C120" t="str">
+        <v>질병관리청 국립보건연구원</v>
+      </c>
+      <c r="D120" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="E120" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="F120" t="str">
+        <v>제한경쟁</v>
+      </c>
+      <c r="G120" t="str">
+        <v>[정보화] 공공백신 종합정보시스템 2차년도 기능개선</v>
+      </c>
+      <c r="H120" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="I120">
+        <v>98000000</v>
+      </c>
+      <c r="J120" t="str">
+        <v>운영지원과</v>
+      </c>
+      <c r="K120" t="str">
+        <v>김정언</v>
+      </c>
+      <c r="L120" t="str">
+        <v>043-719-8137</v>
+      </c>
+      <c r="M120" t="str">
+        <v>신규</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="str">
+        <v>1770</v>
+      </c>
+      <c r="B121" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C121" t="str">
+        <v>서원대학교</v>
+      </c>
+      <c r="D121" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="E121" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="F121" t="str">
+        <v>제한경쟁</v>
+      </c>
+      <c r="G121" t="str">
+        <v>2024학년도 서원대학교 정보시스템 통합유지보수 용역 업체 선정</v>
+      </c>
+      <c r="H121" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="I121">
+        <v>660000000</v>
+      </c>
+      <c r="J121" t="str">
+        <v>전산정보팀</v>
+      </c>
+      <c r="K121" t="str">
+        <v>배동준</v>
+      </c>
+      <c r="L121" t="str">
+        <v>043-299-8080</v>
+      </c>
+      <c r="M121" t="str">
+        <v>신규</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="str">
+        <v>1837</v>
+      </c>
+      <c r="B122" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C122" t="str">
+        <v>한국원자력통제기술원</v>
+      </c>
+      <c r="D122" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="E122" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="F122" t="str">
+        <v>제한경쟁</v>
+      </c>
+      <c r="G122" t="str">
+        <v>소량핵물질 계량관리시스템 유지관리 용역</v>
+      </c>
+      <c r="H122" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="I122">
+        <v>108000000</v>
+      </c>
+      <c r="J122" t="str">
+        <v>안전조치실</v>
+      </c>
+      <c r="K122" t="str">
+        <v>차지환</v>
+      </c>
+      <c r="L122" t="str">
+        <v>042-860-9796</v>
+      </c>
+      <c r="M122" t="str">
+        <v>신규</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="str">
+        <v>1860</v>
+      </c>
+      <c r="B123" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C123" t="str">
+        <v>인하대학교</v>
+      </c>
+      <c r="D123" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="E123" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="F123" t="str">
+        <v>일반경쟁</v>
+      </c>
+      <c r="G123" t="str">
+        <v>인하대학교 학생진로설계포털시스템 개선</v>
+      </c>
+      <c r="H123" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="I123">
+        <v>100000000</v>
+      </c>
+      <c r="J123" t="str">
+        <v>인재개발팀</v>
+      </c>
+      <c r="K123" t="str">
+        <v>황인성</v>
+      </c>
+      <c r="L123" t="str">
+        <v>032-860-7087</v>
+      </c>
+      <c r="M123" t="str">
+        <v>신규</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="str">
+        <v>1865</v>
+      </c>
+      <c r="B124" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C124" t="str">
+        <v>한국항공우주연구원</v>
+      </c>
+      <c r="D124" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="E124" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="F124" t="str">
+        <v>제한경쟁</v>
+      </c>
+      <c r="G124" t="str">
+        <v>한국형위성항법시스템(KPS) 위성 통합시험 및 운영시스템(ITOS) 유지관리</v>
+      </c>
+      <c r="H124" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="I124">
+        <v>1000000000</v>
+      </c>
+      <c r="J124" t="str">
+        <v>위성총조립시험센터</v>
+      </c>
+      <c r="K124" t="str">
+        <v>허윤구</v>
+      </c>
+      <c r="L124" t="str">
+        <v>042-860-2959</v>
+      </c>
+      <c r="M124" t="str">
+        <v>신규</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="str">
+        <v>1966</v>
+      </c>
+      <c r="B125" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C125" t="str">
+        <v>경희대학교산학협력단</v>
+      </c>
+      <c r="D125" t="str">
+        <v>2024년 06월</v>
+      </c>
+      <c r="E125" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="F125" t="str">
+        <v>제한경쟁</v>
+      </c>
+      <c r="G125" t="str">
+        <v>2024학년도 경희대학교 Aladdin 및 현장실습 시스템 유지보수 운영업체 선정</v>
+      </c>
+      <c r="H125" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="I125">
+        <v>32000000</v>
+      </c>
+      <c r="J125" t="str">
+        <v>경희대학교 산학협력단</v>
+      </c>
+      <c r="K125" t="str">
+        <v>조재형</v>
+      </c>
+      <c r="L125" t="str">
+        <v>031-201-3529</v>
+      </c>
+      <c r="M125" t="str">
+        <v>신규</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="str">
+        <v>1979</v>
+      </c>
+      <c r="B126" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C126" t="str">
+        <v>전북특별자치도 정읍시</v>
+      </c>
+      <c r="D126" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="E126" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="F126" t="str">
+        <v>수의계약</v>
+      </c>
+      <c r="G126" t="str">
+        <v>정읍시립도서관 카카오톡 챗봇 서비스 시스템 구축 용역</v>
+      </c>
+      <c r="H126" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="I126">
+        <v>33000000</v>
+      </c>
+      <c r="J126" t="str">
+        <v>도서관사업소</v>
+      </c>
+      <c r="K126" t="str">
+        <v>정혜연</v>
+      </c>
+      <c r="L126" t="str">
+        <v>063-539-6435</v>
+      </c>
+      <c r="M126" t="str">
+        <v>신규</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="str">
+        <v>1984</v>
+      </c>
+      <c r="B127" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C127" t="str">
+        <v>새만금개발청</v>
+      </c>
+      <c r="D127" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="E127" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="F127" t="str">
+        <v>수의계약</v>
+      </c>
+      <c r="G127" t="str">
+        <v>새만금투자전시관 무인경비시스템 유지관리 용역</v>
+      </c>
+      <c r="H127" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="I127">
+        <v>3960000</v>
+      </c>
+      <c r="J127" t="str">
+        <v>투자유치과</v>
+      </c>
+      <c r="K127" t="str">
+        <v>윤효정</v>
+      </c>
+      <c r="L127" t="str">
+        <v>063-733-1236</v>
+      </c>
+      <c r="M127" t="str">
+        <v>장기</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="str">
+        <v>2</v>
+      </c>
+      <c r="B128" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C128" t="str">
+        <v>한국환경보전원</v>
+      </c>
+      <c r="D128" t="str">
+        <v>2024년 06월</v>
+      </c>
+      <c r="E128" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="F128" t="str">
+        <v>제한경쟁</v>
+      </c>
+      <c r="G128" t="str">
+        <v>환경교육사 자격평가 시스템 고도화 용역</v>
+      </c>
+      <c r="H128" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="I128">
+        <v>220000000</v>
+      </c>
+      <c r="J128" t="str">
+        <v>환경교육지원처 사회환경교육팀</v>
+      </c>
+      <c r="K128" t="str">
+        <v>우희진</v>
+      </c>
+      <c r="L128" t="str">
+        <v>02-3407-1572</v>
+      </c>
+      <c r="M128" t="str">
+        <v>신규</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="str">
+        <v>19</v>
+      </c>
+      <c r="B129" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C129" t="str">
+        <v>충청남도개발공사</v>
+      </c>
+      <c r="D129" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="E129" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="F129" t="str">
+        <v>수의계약</v>
+      </c>
+      <c r="G129" t="str">
+        <v>대표 홈페이지 검색엔진 이관 용역</v>
+      </c>
+      <c r="H129" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="I129">
+        <v>5500000</v>
+      </c>
+      <c r="J129" t="str">
+        <v>경영지원부</v>
+      </c>
+      <c r="K129" t="str">
+        <v>여기성</v>
+      </c>
+      <c r="L129" t="str">
+        <v>041-630-7887</v>
+      </c>
+      <c r="M129" t="str">
+        <v>신규</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="str">
+        <v>24</v>
+      </c>
+      <c r="B130" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C130" t="str">
+        <v>국립암센터</v>
+      </c>
+      <c r="D130" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="E130" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="F130" t="str">
+        <v>제한경쟁</v>
+      </c>
+      <c r="G130" t="str">
+        <v>국가폐암검진 판독지원 및 질관리 정보시스템 고도화 및 유지보수</v>
+      </c>
+      <c r="H130" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="I130">
+        <v>358250000</v>
+      </c>
+      <c r="J130" t="str">
+        <v>물류관리팀</v>
+      </c>
+      <c r="K130" t="str">
+        <v>전효정</v>
+      </c>
+      <c r="L130" t="str">
+        <v>031-920-0470</v>
+      </c>
+      <c r="M130" t="str">
+        <v>신규</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="str">
+        <v>48</v>
+      </c>
+      <c r="B131" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C131" t="str">
+        <v>한국토지주택공사</v>
+      </c>
+      <c r="D131" t="str">
+        <v>2024년 06월</v>
+      </c>
+      <c r="E131" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="F131" t="str">
+        <v>일반경쟁</v>
+      </c>
+      <c r="G131" t="str">
+        <v>실증도시 물리-가상센서 인프라 및 U-Ecotron 연계 시스템 구축</v>
+      </c>
+      <c r="H131" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="I131">
+        <v>410000000</v>
+      </c>
+      <c r="J131" t="str">
+        <v>연구관리처</v>
+      </c>
+      <c r="L131" t="str">
+        <v>0428668464</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="str">
+        <v>53</v>
+      </c>
+      <c r="B132" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C132" t="str">
+        <v>한국토지주택공사</v>
+      </c>
+      <c r="D132" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="E132" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="F132" t="str">
+        <v>수의계약</v>
+      </c>
+      <c r="G132" t="str">
+        <v>로앤비 법률정보시스템 제공 용역</v>
+      </c>
+      <c r="H132" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="I132">
+        <v>33790900</v>
+      </c>
+      <c r="J132" t="str">
+        <v>법무처</v>
+      </c>
+      <c r="L132" t="str">
+        <v>0559225186</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="str">
+        <v>72</v>
+      </c>
+      <c r="B133" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C133" t="str">
+        <v>광주광역시</v>
+      </c>
+      <c r="D133" t="str">
+        <v>2024년 06월</v>
+      </c>
+      <c r="E133" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="F133" t="str">
+        <v>수의계약</v>
+      </c>
+      <c r="G133" t="str">
+        <v>2024년 대기오염방지시설관리시스템 유지보수 용역</v>
+      </c>
+      <c r="H133" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="I133">
+        <v>61400000</v>
+      </c>
+      <c r="J133" t="str">
+        <v>환경보전과</v>
+      </c>
+      <c r="K133" t="str">
+        <v>황자연</v>
+      </c>
+      <c r="L133" t="str">
+        <v>062-613-4152</v>
+      </c>
+      <c r="M133" t="str">
+        <v>신규</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="str">
+        <v>104</v>
+      </c>
+      <c r="B134" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C134" t="str">
+        <v>서울특별시금천구시설관리공단</v>
+      </c>
+      <c r="D134" t="str">
+        <v>2024년 06월</v>
+      </c>
+      <c r="E134" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="F134" t="str">
+        <v>일반경쟁</v>
+      </c>
+      <c r="G134" t="str">
+        <v>금나래문화체육센터 회원관리시스템 고도화 재구축 용역</v>
+      </c>
+      <c r="H134" t="str">
+        <v>기술용역</v>
+      </c>
+      <c r="I134">
+        <v>220000000</v>
+      </c>
+      <c r="J134" t="str">
+        <v>금나래문화체육부</v>
+      </c>
+      <c r="K134" t="str">
+        <v>윤성호 주임</v>
+      </c>
+      <c r="L134" t="str">
+        <v>070-4432-8148</v>
+      </c>
+      <c r="M134" t="str">
+        <v>신규</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="str">
+        <v>127</v>
+      </c>
+      <c r="B135" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C135" t="str">
+        <v>경기도 평택시</v>
+      </c>
+      <c r="D135" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="E135" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="F135" t="str">
+        <v>일반경쟁</v>
+      </c>
+      <c r="G135" t="str">
+        <v>2024년도 평택시 버스정보시스템(BIS) 구축사업(협상에 의한 계약)</v>
+      </c>
+      <c r="H135" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="I135">
+        <v>999494600</v>
+      </c>
+      <c r="J135" t="str">
+        <v>대중교통과</v>
+      </c>
+      <c r="K135" t="str">
+        <v>류한상</v>
+      </c>
+      <c r="L135" t="str">
+        <v>031-8024-4691</v>
+      </c>
+      <c r="M135" t="str">
+        <v>신규</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="str">
+        <v>142</v>
+      </c>
+      <c r="B136" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C136" t="str">
+        <v>한국도로공사</v>
+      </c>
+      <c r="D136" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="E136" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="F136" t="str">
+        <v>수의계약</v>
+      </c>
+      <c r="G136" t="str">
+        <v>이동형 GPS 신호 검증시스템 원가계산 용역</v>
+      </c>
+      <c r="H136" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="I136">
+        <v>3000000</v>
+      </c>
+      <c r="J136" t="str">
+        <v>도로교통연구원 디지털융합연구실</v>
+      </c>
+      <c r="K136" t="str">
+        <v>이원우</v>
+      </c>
+      <c r="L136" t="str">
+        <v>031-8098-6261</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="str">
+        <v>143</v>
+      </c>
+      <c r="B137" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C137" t="str">
+        <v>(재)공간정보품질관리원</v>
+      </c>
+      <c r="D137" t="str">
+        <v>2024년 06월</v>
+      </c>
+      <c r="E137" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="F137" t="str">
+        <v>제한경쟁</v>
+      </c>
+      <c r="G137" t="str">
+        <v>기본측량품질검증관리시스템 구축</v>
+      </c>
+      <c r="H137" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="I137">
+        <v>500000000</v>
+      </c>
+      <c r="J137" t="str">
+        <v>경영전략실</v>
+      </c>
+      <c r="K137" t="str">
+        <v>이지은</v>
+      </c>
+      <c r="L137" t="str">
+        <v>02-6418-9115</v>
+      </c>
+      <c r="M137" t="str">
+        <v>신규</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="str">
+        <v>154</v>
+      </c>
+      <c r="B138" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C138" t="str">
+        <v>한국과학기술원</v>
+      </c>
+      <c r="D138" t="str">
+        <v>2024년 06월</v>
+      </c>
+      <c r="E138" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="F138" t="str">
+        <v>수의계약</v>
+      </c>
+      <c r="G138" t="str">
+        <v>영재키움 프로젝트 홈페이지 기능 개선 용역</v>
+      </c>
+      <c r="H138" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="I138">
+        <v>30000000</v>
+      </c>
+      <c r="J138" t="str">
+        <v>구매팀</v>
+      </c>
+      <c r="K138" t="str">
+        <v>이윤정</v>
+      </c>
+      <c r="L138" t="str">
+        <v>042-350-2333</v>
+      </c>
+      <c r="M138" t="str">
+        <v>신규</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="str">
+        <v>157</v>
+      </c>
+      <c r="B139" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C139" t="str">
+        <v>해양수산부 해양수산인재개발원</v>
+      </c>
+      <c r="D139" t="str">
+        <v>2024년 06월</v>
+      </c>
+      <c r="E139" t="str">
+        <v>중앙조달</v>
+      </c>
+      <c r="F139" t="str">
+        <v>제한경쟁</v>
+      </c>
+      <c r="G139" t="str">
+        <v>2024년 학사운영정보시스템 기능개선</v>
+      </c>
+      <c r="H139" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="I139">
+        <v>135000000</v>
+      </c>
+      <c r="J139" t="str">
+        <v>교육운영과</v>
+      </c>
+      <c r="K139" t="str">
+        <v>이나은</v>
+      </c>
+      <c r="L139" t="str">
+        <v>051-720-7793</v>
+      </c>
+      <c r="M139" t="str">
+        <v>신규</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="str">
+        <v>182</v>
+      </c>
+      <c r="B140" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C140" t="str">
+        <v>한국농어촌공사</v>
+      </c>
+      <c r="D140" t="str">
+        <v>2024년 06월</v>
+      </c>
+      <c r="E140" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="F140" t="str">
+        <v>제한경쟁</v>
+      </c>
+      <c r="G140" t="str">
+        <v>농업진흥지역 관리시스템 기능개발 및 DB구축 용역</v>
+      </c>
+      <c r="H140" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="I140">
+        <v>254000000</v>
+      </c>
+      <c r="J140" t="str">
+        <v>계약부</v>
+      </c>
+      <c r="K140" t="str">
+        <v>이승협</v>
+      </c>
+      <c r="L140" t="str">
+        <v>061-338-6109</v>
+      </c>
+      <c r="M140" t="str">
+        <v>신규</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="str">
+        <v>199</v>
+      </c>
+      <c r="B141" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C141" t="str">
+        <v>대한장애인체육회</v>
+      </c>
+      <c r="D141" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="E141" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="F141" t="str">
+        <v>일반경쟁</v>
+      </c>
+      <c r="G141" t="str">
+        <v>차세대통합정보시스템 구축 감리</v>
+      </c>
+      <c r="H141" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="I141">
+        <v>588000000</v>
+      </c>
+      <c r="J141" t="str">
+        <v>경영지원부</v>
+      </c>
+      <c r="K141" t="str">
+        <v>윤은진</v>
+      </c>
+      <c r="L141" t="str">
+        <v>02-3434-4544</v>
+      </c>
+      <c r="M141" t="str">
+        <v>신규</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="str">
+        <v>223</v>
+      </c>
+      <c r="B142" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C142" t="str">
+        <v>인천대학교 산학협력단</v>
+      </c>
+      <c r="D142" t="str">
+        <v>2024년 06월</v>
+      </c>
+      <c r="E142" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="F142" t="str">
+        <v>제한경쟁</v>
+      </c>
+      <c r="G142" t="str">
+        <v>융복합 물류시스템 과제 간 장치 인터페이스 상세 설계 용역</v>
+      </c>
+      <c r="H142" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="I142">
+        <v>70000000</v>
+      </c>
+      <c r="J142" t="str">
+        <v>경영지원팀</v>
+      </c>
+      <c r="K142" t="str">
+        <v>이경아</v>
+      </c>
+      <c r="L142" t="str">
+        <v>032-835-9541</v>
+      </c>
+      <c r="M142" t="str">
+        <v>신규</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="str">
+        <v>237</v>
+      </c>
+      <c r="B143" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C143" t="str">
+        <v>건설근로자공제회</v>
+      </c>
+      <c r="D143" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="E143" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="F143" t="str">
+        <v>제한경쟁</v>
+      </c>
+      <c r="G143" t="str">
+        <v>통합시스템 구축 감리 및 개인정보 영향평가</v>
+      </c>
+      <c r="H143" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="I143">
+        <v>250000000</v>
+      </c>
+      <c r="J143" t="str">
+        <v>IT개선팀</v>
+      </c>
+      <c r="K143" t="str">
+        <v>유용선</v>
+      </c>
+      <c r="L143" t="str">
+        <v>02-519-7712</v>
+      </c>
+      <c r="M143" t="str">
+        <v>신규</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="str">
+        <v>240</v>
+      </c>
+      <c r="B144" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C144" t="str">
+        <v>경찰청</v>
+      </c>
+      <c r="D144" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="E144" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="F144" t="str">
+        <v>제한경쟁</v>
+      </c>
+      <c r="G144" t="str">
+        <v>2024년 경찰항공업무시스템 유지관리 사업</v>
+      </c>
+      <c r="H144" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="I144">
+        <v>30000000</v>
+      </c>
+      <c r="J144" t="str">
+        <v>경찰청 항공과</v>
+      </c>
+      <c r="K144" t="str">
+        <v>손선봉</v>
+      </c>
+      <c r="L144" t="str">
+        <v>02-3150-1285</v>
+      </c>
+      <c r="M144" t="str">
+        <v>신규</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="str">
+        <v>266</v>
+      </c>
+      <c r="B145" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C145" t="str">
+        <v>경상북도 영천시</v>
+      </c>
+      <c r="D145" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="E145" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="F145" t="str">
+        <v>수의계약</v>
+      </c>
+      <c r="G145" t="str">
+        <v>학생 교통비 지원 교통카드 정산시스템 구축 용역</v>
+      </c>
+      <c r="H145" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="I145">
+        <v>140000000</v>
+      </c>
+      <c r="J145" t="str">
+        <v>교통행정과</v>
+      </c>
+      <c r="K145" t="str">
+        <v>이재득</v>
+      </c>
+      <c r="L145" t="str">
+        <v>054-330-6254</v>
+      </c>
+      <c r="M145" t="str">
+        <v>신규</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="str">
+        <v>267</v>
+      </c>
+      <c r="B146" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C146" t="str">
+        <v>한국생산기술연구원</v>
+      </c>
+      <c r="D146" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="E146" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="F146" t="str">
+        <v>제한경쟁</v>
+      </c>
+      <c r="G146" t="str">
+        <v>KITECH연구데이터플랫폼 구축 정보시스템마스터플랜(ISMP) 수립</v>
+      </c>
+      <c r="H146" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="I146">
+        <v>180000000</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="str">
+        <v>296</v>
+      </c>
+      <c r="B147" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C147" t="str">
+        <v>한국생명공학연구원</v>
+      </c>
+      <c r="D147" t="str">
+        <v>2024년 06월</v>
+      </c>
+      <c r="E147" t="str">
+        <v>중앙조달</v>
+      </c>
+      <c r="F147" t="str">
+        <v>제한경쟁</v>
+      </c>
+      <c r="G147" t="str">
+        <v>2024년 국가연구안전관리본부 정보시스템(LABS, EDU) 고도화</v>
+      </c>
+      <c r="H147" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="I147">
+        <v>235840000</v>
+      </c>
+      <c r="J147" t="str">
+        <v>구매자산실</v>
+      </c>
+      <c r="K147" t="str">
+        <v>최규선</v>
+      </c>
+      <c r="L147" t="str">
+        <v>042-860-4041</v>
+      </c>
+      <c r="M147" t="str">
+        <v>신규</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="str">
+        <v>326</v>
+      </c>
+      <c r="B148" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C148" t="str">
+        <v>서울에너지공사</v>
+      </c>
+      <c r="D148" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="E148" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="F148" t="str">
+        <v>제한경쟁</v>
+      </c>
+      <c r="G148" t="str">
+        <v>그룹웨어시스템 고도화 용역</v>
+      </c>
+      <c r="H148" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="I148">
+        <v>177142000</v>
+      </c>
+      <c r="J148" t="str">
+        <v>정보시스템부</v>
+      </c>
+      <c r="K148" t="str">
+        <v>이정미</v>
+      </c>
+      <c r="L148" t="str">
+        <v>02-2640-5191</v>
+      </c>
+      <c r="M148" t="str">
+        <v>신규</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="str">
+        <v>359</v>
+      </c>
+      <c r="B149" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C149" t="str">
+        <v>서울물재생시설공단</v>
+      </c>
+      <c r="D149" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="E149" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="F149" t="str">
+        <v>제한경쟁</v>
+      </c>
+      <c r="G149" t="str">
+        <v>2024년 경영시스템 고도화 컨설팅 용역(협상에 의한 계약)</v>
+      </c>
+      <c r="H149" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="I149">
+        <v>193250000</v>
+      </c>
+      <c r="J149" t="str">
+        <v>경영혁신팀</v>
+      </c>
+      <c r="K149" t="str">
+        <v>이대건</v>
+      </c>
+      <c r="L149" t="str">
+        <v>02-3410-9887</v>
+      </c>
+      <c r="M149" t="str">
+        <v>신규</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="str">
+        <v>400</v>
+      </c>
+      <c r="B150" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C150" t="str">
+        <v>(주)이지메디컴</v>
+      </c>
+      <c r="D150" t="str">
+        <v>2024년 06월</v>
+      </c>
+      <c r="E150" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="F150" t="str">
+        <v>제한경쟁</v>
+      </c>
+      <c r="G150" t="str">
+        <v>[용역][국립소방병원] 통합의료정보시스템 구축사업(HIS 및 HIS연계솔루션 구축) 용역 제안요청서</v>
+      </c>
+      <c r="H150" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="I150">
+        <v>0</v>
+      </c>
+      <c r="J150" t="str">
+        <v>약품&amp;MRO</v>
+      </c>
+      <c r="K150" t="str">
+        <v>이수정</v>
+      </c>
+      <c r="L150" t="str">
+        <v>02-3016-7784</v>
+      </c>
+      <c r="M150" t="str">
+        <v>신규</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="str">
+        <v>411</v>
+      </c>
+      <c r="B151" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C151" t="str">
+        <v>(주)대우건설</v>
+      </c>
+      <c r="D151" t="str">
+        <v>2024년 06월</v>
+      </c>
+      <c r="E151" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="F151" t="str">
+        <v>일반경쟁</v>
+      </c>
+      <c r="G151" t="str">
+        <v>기본 및 실시설계 문서관리시스템(DCS) 위탁 운영</v>
+      </c>
+      <c r="H151" t="str">
+        <v>기술용역</v>
+      </c>
+      <c r="I151">
+        <v>26000000</v>
+      </c>
+      <c r="J151" t="str">
+        <v>대우건설기술연구원</v>
+      </c>
+      <c r="K151" t="str">
+        <v>반동현</v>
+      </c>
+      <c r="L151" t="str">
+        <v>031-250-1253</v>
+      </c>
+      <c r="M151" t="str">
+        <v>신규</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="str">
+        <v>415</v>
+      </c>
+      <c r="B152" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C152" t="str">
+        <v>(주)대우건설</v>
+      </c>
+      <c r="D152" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="E152" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="F152" t="str">
+        <v>일반경쟁</v>
+      </c>
+      <c r="G152" t="str">
+        <v>기본 및 실시설계 문서관리시스템(DCS) 위탁 운영</v>
+      </c>
+      <c r="H152" t="str">
+        <v>기술용역</v>
+      </c>
+      <c r="I152">
+        <v>26000000</v>
+      </c>
+      <c r="J152" t="str">
+        <v>대우건설기술연구원</v>
+      </c>
+      <c r="K152" t="str">
+        <v>반동현</v>
+      </c>
+      <c r="L152" t="str">
+        <v>031-250-1253</v>
+      </c>
+      <c r="M152" t="str">
+        <v>신규</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="str">
+        <v>421</v>
+      </c>
+      <c r="B153" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C153" t="str">
+        <v>한국생산기술연구원</v>
+      </c>
+      <c r="D153" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="E153" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="F153" t="str">
+        <v>제한경쟁</v>
+      </c>
+      <c r="G153" t="str">
+        <v>2024년 기업지원 해피클릭 홈페이지 유지보수 용역</v>
+      </c>
+      <c r="H153" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="I153">
+        <v>24973296</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="str">
+        <v>437</v>
+      </c>
+      <c r="B154" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C154" t="str">
+        <v>인천공항운영서비스(주)</v>
+      </c>
+      <c r="D154" t="str">
+        <v>2024년 06월</v>
+      </c>
+      <c r="E154" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="F154" t="str">
+        <v>제한경쟁</v>
+      </c>
+      <c r="G154" t="str">
+        <v>인천공항운영서비스㈜ 차세대 ERP시스템 구축 사업</v>
+      </c>
+      <c r="H154" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="I154">
+        <v>996356000</v>
+      </c>
+      <c r="J154" t="str">
+        <v>총무팀</v>
+      </c>
+      <c r="K154" t="str">
+        <v>배영문</v>
+      </c>
+      <c r="L154" t="str">
+        <v>032-723-8517</v>
+      </c>
+      <c r="M154" t="str">
+        <v>신규</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="str">
+        <v>443</v>
+      </c>
+      <c r="B155" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C155" t="str">
+        <v>제주관광대학산학협력단</v>
+      </c>
+      <c r="D155" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="E155" t="str">
+        <v>중앙조달</v>
+      </c>
+      <c r="F155" t="str">
+        <v>제한경쟁</v>
+      </c>
+      <c r="G155" t="str">
+        <v>LINC 3.0 JTU-e 산학협력 시스템 고도화 사업 용역</v>
+      </c>
+      <c r="H155" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="I155">
+        <v>120000000</v>
+      </c>
+      <c r="J155" t="str">
+        <v>제주관광대학교 행정지원처</v>
+      </c>
+      <c r="K155" t="str">
+        <v>박영석</v>
+      </c>
+      <c r="L155" t="str">
+        <v>064-740-8808</v>
+      </c>
+      <c r="M155" t="str">
+        <v>신규</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="str">
+        <v>485</v>
+      </c>
+      <c r="B156" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C156" t="str">
+        <v>한국어촌어항공단</v>
+      </c>
+      <c r="D156" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="E156" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="F156" t="str">
+        <v>수의계약</v>
+      </c>
+      <c r="G156" t="str">
+        <v>한국어촌어항공단 경영관리시스템(ERP·GW) 기능 고도화 용역</v>
+      </c>
+      <c r="H156" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="I156">
+        <v>397000000</v>
+      </c>
+      <c r="J156" t="str">
+        <v>디지털정보실</v>
+      </c>
+      <c r="K156" t="str">
+        <v>정재혁</v>
+      </c>
+      <c r="L156" t="str">
+        <v>02-6098-0754</v>
+      </c>
+      <c r="M156" t="str">
+        <v>신규</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="str">
+        <v>499</v>
+      </c>
+      <c r="B157" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C157" t="str">
+        <v>재단법인서울디자인재단</v>
+      </c>
+      <c r="D157" t="str">
+        <v>2024년 06월</v>
+      </c>
+      <c r="E157" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="F157" t="str">
+        <v>제한경쟁</v>
+      </c>
+      <c r="G157" t="str">
+        <v>서울디자인재단 가상화 시스템 구축 용역</v>
+      </c>
+      <c r="H157" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="I157">
+        <v>144970000</v>
+      </c>
+      <c r="J157" t="str">
+        <v>총무팀</v>
+      </c>
+      <c r="K157" t="str">
+        <v>김주희 책임</v>
+      </c>
+      <c r="L157" t="str">
+        <v>02-2096-0092</v>
+      </c>
+      <c r="M157" t="str">
+        <v>신규</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="str">
+        <v>504</v>
+      </c>
+      <c r="B158" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C158" t="str">
+        <v>서울특별시교육청 서울특별시교육청보건안전진흥원</v>
+      </c>
+      <c r="D158" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="E158" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="F158" t="str">
+        <v>제한경쟁</v>
+      </c>
+      <c r="G158" t="str">
+        <v>2024년 서울형 응급처치 및 심폐소생술 교육시스템 운영</v>
+      </c>
+      <c r="H158" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="I158">
+        <v>59713000</v>
+      </c>
+      <c r="J158" t="str">
+        <v>행정지원과</v>
+      </c>
+      <c r="K158" t="str">
+        <v>박이연</v>
+      </c>
+      <c r="L158" t="str">
+        <v>02-724-1408</v>
+      </c>
+      <c r="M158" t="str">
+        <v>신규</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="str">
+        <v>561</v>
+      </c>
+      <c r="B159" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C159" t="str">
+        <v>국토교통부 익산지방국토관리청 광주국토관리사무소</v>
+      </c>
+      <c r="D159" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="E159" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="F159" t="str">
+        <v>제한경쟁</v>
+      </c>
+      <c r="G159" t="str">
+        <v>2024년 광주국토 관내 비탈면 모니터링 시스템 구축 용역</v>
+      </c>
+      <c r="H159" t="str">
+        <v>기술용역</v>
+      </c>
+      <c r="I159">
+        <v>1500000000</v>
+      </c>
+      <c r="J159" t="str">
+        <v>운영지원과</v>
+      </c>
+      <c r="K159" t="str">
+        <v>김소영</v>
+      </c>
+      <c r="L159" t="str">
+        <v>062-970-6320</v>
+      </c>
+      <c r="M159" t="str">
+        <v>신규</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="str">
+        <v>564</v>
+      </c>
+      <c r="B160" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C160" t="str">
+        <v>한국철도공사</v>
+      </c>
+      <c r="D160" t="str">
+        <v>2024년 06월</v>
+      </c>
+      <c r="E160" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="F160" t="str">
+        <v>수의계약</v>
+      </c>
+      <c r="G160" t="str">
+        <v>강원본부 재해관리개소 영상감시시스템 유지관리용역</v>
+      </c>
+      <c r="H160" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="I160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="str">
+        <v>588</v>
+      </c>
+      <c r="B161" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C161" t="str">
+        <v>한국대학교육협의회</v>
+      </c>
+      <c r="D161" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="E161" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="F161" t="str">
+        <v>일반경쟁</v>
+      </c>
+      <c r="G161" t="str">
+        <v>2024~2025년 대입전형 공정성강화 지원시스템 유지보수 및 운영지원 사업 전산감리</v>
+      </c>
+      <c r="H161" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="I161">
+        <v>40000000</v>
+      </c>
+      <c r="J161" t="str">
+        <v>대입공정성지원팀</v>
+      </c>
+      <c r="K161" t="str">
+        <v>조준범</v>
+      </c>
+      <c r="L161" t="str">
+        <v>02-6919-3996</v>
+      </c>
+      <c r="M161" t="str">
+        <v>신규</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="str">
+        <v>637</v>
+      </c>
+      <c r="B162" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C162" t="str">
+        <v>재외동포청</v>
+      </c>
+      <c r="D162" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="E162" t="str">
+        <v>중앙조달</v>
+      </c>
+      <c r="F162" t="str">
+        <v>제한경쟁</v>
+      </c>
+      <c r="G162" t="str">
+        <v>디지털 영사민원시스템 2단계 구축사업</v>
+      </c>
+      <c r="H162" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="I162">
+        <v>2178980000</v>
+      </c>
+      <c r="J162" t="str">
+        <v>재외동포서비스지원센터</v>
+      </c>
+      <c r="K162" t="str">
+        <v>연성욱</v>
+      </c>
+      <c r="L162" t="str">
+        <v>02-6399-7173</v>
+      </c>
+      <c r="M162" t="str">
+        <v>신규</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="str">
+        <v>647</v>
+      </c>
+      <c r="B163" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C163" t="str">
+        <v>충청북도교육청</v>
+      </c>
+      <c r="D163" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="E163" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="F163" t="str">
+        <v>제한경쟁</v>
+      </c>
+      <c r="G163" t="str">
+        <v>초·중등 교육공무원 인사시스템 개발 용역</v>
+      </c>
+      <c r="H163" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="I163">
+        <v>195800000</v>
+      </c>
+      <c r="J163" t="str">
+        <v>교원인사과</v>
+      </c>
+      <c r="K163" t="str">
+        <v>노태희</v>
+      </c>
+      <c r="L163" t="str">
+        <v>043-290-2635</v>
+      </c>
+      <c r="M163" t="str">
+        <v>신규</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="str">
+        <v>651</v>
+      </c>
+      <c r="B164" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C164" t="str">
+        <v>서울특별시 서울시립대학교 산학협력단</v>
+      </c>
+      <c r="D164" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="E164" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="F164" t="str">
+        <v>수의계약</v>
+      </c>
+      <c r="G164" t="str">
+        <v>조립서버시스템 임차</v>
+      </c>
+      <c r="H164" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="I164">
+        <v>15785000</v>
+      </c>
+      <c r="J164" t="str">
+        <v>경영지원팀</v>
+      </c>
+      <c r="K164" t="str">
+        <v>김연희</v>
+      </c>
+      <c r="L164" t="str">
+        <v>02-6490-6388</v>
+      </c>
+      <c r="M164" t="str">
+        <v>신규</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="str">
+        <v>660</v>
+      </c>
+      <c r="B165" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C165" t="str">
+        <v>한국고용노동교육원</v>
+      </c>
+      <c r="D165" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="E165" t="str">
+        <v>중앙조달</v>
+      </c>
+      <c r="F165" t="str">
+        <v>제한경쟁</v>
+      </c>
+      <c r="G165" t="str">
+        <v>2024년 정보시스템 인프라 통합 유지보수 용역</v>
+      </c>
+      <c r="H165" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="I165">
+        <v>215000000</v>
+      </c>
+      <c r="J165" t="str">
+        <v>경영지원팀</v>
+      </c>
+      <c r="K165" t="str">
+        <v>조용우</v>
+      </c>
+      <c r="L165" t="str">
+        <v>031-760-7872</v>
+      </c>
+      <c r="M165" t="str">
+        <v>신규</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="str">
+        <v>709</v>
+      </c>
+      <c r="B166" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C166" t="str">
+        <v>대한체육회 진천선수촌</v>
+      </c>
+      <c r="D166" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="E166" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="F166" t="str">
+        <v>제한경쟁</v>
+      </c>
+      <c r="G166" t="str">
+        <v>국가대표 체력관리 시스템 개발</v>
+      </c>
+      <c r="H166" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="I166">
+        <v>400000000</v>
+      </c>
+      <c r="J166" t="str">
+        <v>훈련본부</v>
+      </c>
+      <c r="K166" t="str">
+        <v>박정기</v>
+      </c>
+      <c r="L166" t="str">
+        <v>043-531-0109</v>
+      </c>
+      <c r="M166" t="str">
+        <v>신규</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="str">
+        <v>719</v>
+      </c>
+      <c r="B167" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C167" t="str">
+        <v>서울특별시</v>
+      </c>
+      <c r="D167" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="E167" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="F167" t="str">
+        <v>제한경쟁</v>
+      </c>
+      <c r="G167" t="str">
+        <v>장애인 버스요금 지원 관리시스템 운영 및 유지보수 용역</v>
+      </c>
+      <c r="H167" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="I167">
+        <v>127285000</v>
+      </c>
+      <c r="J167" t="str">
+        <v>서울특별시 장애인복지정책과</v>
+      </c>
+      <c r="K167" t="str">
+        <v>이순한</v>
+      </c>
+      <c r="L167" t="str">
+        <v>02-2133-7364</v>
+      </c>
+      <c r="M167" t="str">
+        <v>신규</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="str">
+        <v>744</v>
+      </c>
+      <c r="B168" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C168" t="str">
+        <v>경상북도</v>
+      </c>
+      <c r="D168" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="E168" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="F168" t="str">
+        <v>수의계약</v>
+      </c>
+      <c r="G168" t="str">
+        <v>경북도청 공용차량 스마트배차시스템 단말기 설치 및 서비스 이용</v>
+      </c>
+      <c r="H168" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="I168">
+        <v>1221000</v>
+      </c>
+      <c r="J168" t="str">
+        <v>회계과</v>
+      </c>
+      <c r="K168" t="str">
+        <v>조준영</v>
+      </c>
+      <c r="L168" t="str">
+        <v>054-880-8868</v>
+      </c>
+      <c r="M168" t="str">
+        <v>신규</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="str">
+        <v>784</v>
+      </c>
+      <c r="B169" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C169" t="str">
+        <v>서울특별시 농업기술센터</v>
+      </c>
+      <c r="D169" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="E169" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="F169" t="str">
+        <v>수의계약</v>
+      </c>
+      <c r="G169" t="str">
+        <v>스마트농장형 치유농업교육장 양어수경재배 시스템 여과재 교체</v>
+      </c>
+      <c r="H169" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="I169">
+        <v>13150000</v>
+      </c>
+      <c r="J169" t="str">
+        <v>치유농업팀</v>
+      </c>
+      <c r="K169" t="str">
+        <v>김선옥</v>
+      </c>
+      <c r="L169" t="str">
+        <v>02-6959-9343</v>
+      </c>
+      <c r="M169" t="str">
+        <v>신규</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="str">
+        <v>797</v>
+      </c>
+      <c r="B170" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C170" t="str">
+        <v>제주특별자치도개발공사</v>
+      </c>
+      <c r="D170" t="str">
+        <v>2024년 06월</v>
+      </c>
+      <c r="E170" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="F170" t="str">
+        <v>제한경쟁</v>
+      </c>
+      <c r="G170" t="str">
+        <v>업무지원 시스템 구축</v>
+      </c>
+      <c r="H170" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="I170">
+        <v>80000000</v>
+      </c>
+      <c r="J170" t="str">
+        <v>정보관리팀</v>
+      </c>
+      <c r="K170" t="str">
+        <v>고진호</v>
+      </c>
+      <c r="L170" t="str">
+        <v>064-780-3554</v>
+      </c>
+      <c r="M170" t="str">
+        <v>신규</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="str">
+        <v>801</v>
+      </c>
+      <c r="B171" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C171" t="str">
+        <v>국방과학연구소 부설 국방신속획득기술연구원</v>
+      </c>
+      <c r="D171" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="E171" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="F171" t="str">
+        <v>제한경쟁</v>
+      </c>
+      <c r="G171" t="str">
+        <v>국방신속획득기술연구원 평가시스템 도입 용역</v>
+      </c>
+      <c r="H171" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="I171">
+        <v>112000000</v>
+      </c>
+      <c r="J171" t="str">
+        <v>경영관리실</v>
+      </c>
+      <c r="K171" t="str">
+        <v>성의석</v>
+      </c>
+      <c r="L171" t="str">
+        <v>02-2079-1328</v>
+      </c>
+      <c r="M171" t="str">
+        <v>신규</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="str">
         <v>807</v>
       </c>
-      <c r="B9" t="str">
-        <v>용역</v>
-      </c>
-      <c r="C9" t="str">
-        <v>신규</v>
-      </c>
-      <c r="D9" t="str">
+      <c r="B172" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C172" t="str">
         <v>부산광역시</v>
       </c>
-      <c r="E9" t="str">
-        <v>2024년 05월</v>
-      </c>
-      <c r="F9" t="str">
-        <v>자체조달</v>
-      </c>
-      <c r="G9" t="str">
+      <c r="D172" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="E172" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="F172" t="str">
         <v>수의계약</v>
       </c>
-      <c r="H9" t="str">
+      <c r="G172" t="str">
         <v>2025년 전국(장애인)체전 홈페이지 구축용역</v>
       </c>
-      <c r="I9" t="str">
-        <v>일반용역</v>
-      </c>
-      <c r="J9">
+      <c r="H172" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="I172">
         <v>50000000</v>
       </c>
-      <c r="K9" t="str">
+      <c r="J172" t="str">
         <v>전국체전기획단</v>
       </c>
-      <c r="L9" t="str">
+      <c r="K172" t="str">
         <v>손인구</v>
       </c>
-      <c r="M9" t="str">
+      <c r="L172" t="str">
         <v>051-888-6704</v>
+      </c>
+      <c r="M172" t="str">
+        <v>신규</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="str">
+        <v>839</v>
+      </c>
+      <c r="B173" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C173" t="str">
+        <v>한국건강가정진흥원</v>
+      </c>
+      <c r="D173" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="E173" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="F173" t="str">
+        <v>수의계약</v>
+      </c>
+      <c r="G173" t="str">
+        <v>2024년 다누리배운터 시스템 고도화 (전자시담)</v>
+      </c>
+      <c r="H173" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="I173">
+        <v>97000000</v>
+      </c>
+      <c r="J173" t="str">
+        <v>인식개선부</v>
+      </c>
+      <c r="K173" t="str">
+        <v>박경주</v>
+      </c>
+      <c r="L173" t="str">
+        <v>02-3479-7774</v>
+      </c>
+      <c r="M173" t="str">
+        <v>신규</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="str">
+        <v>861</v>
+      </c>
+      <c r="B174" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C174" t="str">
+        <v>항공안전기술원</v>
+      </c>
+      <c r="D174" t="str">
+        <v>2024년 06월</v>
+      </c>
+      <c r="E174" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="F174" t="str">
+        <v>제한경쟁</v>
+      </c>
+      <c r="G174" t="str">
+        <v>드론 비행시험센터 예약관리시스템 고도화 용역</v>
+      </c>
+      <c r="H174" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="I174">
+        <v>370000000</v>
+      </c>
+      <c r="J174" t="str">
+        <v>미래항공인프라실</v>
+      </c>
+      <c r="K174" t="str">
+        <v>유지현</v>
+      </c>
+      <c r="L174" t="str">
+        <v>032-727-5513</v>
+      </c>
+      <c r="M174" t="str">
+        <v>신규</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="str">
+        <v>919</v>
+      </c>
+      <c r="B175" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C175" t="str">
+        <v>한국원자력연구원</v>
+      </c>
+      <c r="D175" t="str">
+        <v>2024년 06월</v>
+      </c>
+      <c r="E175" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="F175" t="str">
+        <v>제한경쟁</v>
+      </c>
+      <c r="G175" t="str">
+        <v>한국원자력연구원 선량평가시스템 고도화</v>
+      </c>
+      <c r="H175" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="I175">
+        <v>46600000</v>
+      </c>
+      <c r="J175" t="str">
+        <v>원자력환경실</v>
+      </c>
+      <c r="K175" t="str">
+        <v>김원영</v>
+      </c>
+      <c r="L175" t="str">
+        <v>042-868-8373</v>
+      </c>
+      <c r="M175" t="str">
+        <v>신규</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="str">
+        <v>932</v>
+      </c>
+      <c r="B176" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C176" t="str">
+        <v>국가유산청 국립문화유산연구원</v>
+      </c>
+      <c r="D176" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="E176" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="F176" t="str">
+        <v>제한경쟁</v>
+      </c>
+      <c r="G176" t="str">
+        <v>국립문화유산연구원 정보시스템 클라우드 이관 관리</v>
+      </c>
+      <c r="H176" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="I176">
+        <v>95200000</v>
+      </c>
+      <c r="J176" t="str">
+        <v>디지털문화유산연구정보팀</v>
+      </c>
+      <c r="K176" t="str">
+        <v>권정훈</v>
+      </c>
+      <c r="L176" t="str">
+        <v>042-860-9165</v>
+      </c>
+      <c r="M176" t="str">
+        <v>신규</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="str">
+        <v>941</v>
+      </c>
+      <c r="B177" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C177" t="str">
+        <v>한국지역난방공사</v>
+      </c>
+      <c r="D177" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="E177" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="F177" t="str">
+        <v>제한경쟁</v>
+      </c>
+      <c r="G177" t="str">
+        <v>정보보안시스템 운영·유지보수 용역</v>
+      </c>
+      <c r="H177" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="I177">
+        <v>2104028000</v>
+      </c>
+      <c r="J177" t="str">
+        <v>사이버보안센터</v>
+      </c>
+      <c r="K177" t="str">
+        <v>이창욱</v>
+      </c>
+      <c r="L177" t="str">
+        <v>031-8018-6435</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="str">
+        <v>943</v>
+      </c>
+      <c r="B178" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C178" t="str">
+        <v>한국농수산식품유통공사 농수산식품유통교육원</v>
+      </c>
+      <c r="D178" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="E178" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="F178" t="str">
+        <v>제한경쟁</v>
+      </c>
+      <c r="G178" t="str">
+        <v>2024년 교육정보시스템 위탁운영 용역</v>
+      </c>
+      <c r="H178" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="I178">
+        <v>600000000</v>
+      </c>
+      <c r="J178" t="str">
+        <v>교육지원부</v>
+      </c>
+      <c r="K178" t="str">
+        <v>이동호</v>
+      </c>
+      <c r="L178" t="str">
+        <v>010-9505-0288</v>
+      </c>
+      <c r="M178" t="str">
+        <v>신규</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="str">
+        <v>948</v>
+      </c>
+      <c r="B179" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C179" t="str">
+        <v>한국농어촌공사 농어촌연구원</v>
+      </c>
+      <c r="D179" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="E179" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="F179" t="str">
+        <v>수의계약</v>
+      </c>
+      <c r="G179" t="str">
+        <v>담수호 자율 수질관리 시스템 연계 및 현장운영</v>
+      </c>
+      <c r="H179" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="I179">
+        <v>20000000</v>
+      </c>
+      <c r="J179" t="str">
+        <v>연구지원부</v>
+      </c>
+      <c r="K179" t="str">
+        <v>김지영</v>
+      </c>
+      <c r="L179" t="str">
+        <v>031-400-1636</v>
+      </c>
+      <c r="M179" t="str">
+        <v>신규</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="str">
+        <v>962</v>
+      </c>
+      <c r="B180" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C180" t="str">
+        <v>해양수산부 국립해양조사원</v>
+      </c>
+      <c r="D180" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="E180" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="F180" t="str">
+        <v>제한경쟁</v>
+      </c>
+      <c r="G180" t="str">
+        <v>2024년 종합해양정보시스템 전환 감리</v>
+      </c>
+      <c r="H180" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="I180">
+        <v>30000000</v>
+      </c>
+      <c r="J180" t="str">
+        <v>국립해양조사원 운영지원과</v>
+      </c>
+      <c r="K180" t="str">
+        <v>김건일</v>
+      </c>
+      <c r="L180" t="str">
+        <v>051-400-4377</v>
+      </c>
+      <c r="M180" t="str">
+        <v>신규</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="str">
+        <v>966</v>
+      </c>
+      <c r="B181" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C181" t="str">
+        <v>한국정보통신공사협회</v>
+      </c>
+      <c r="D181" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="E181" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="F181" t="str">
+        <v>제한경쟁</v>
+      </c>
+      <c r="G181" t="str">
+        <v>모바일 전자고지 시스템H/W 구매설치</v>
+      </c>
+      <c r="H181" t="str">
+        <v>기술용역</v>
+      </c>
+      <c r="I181">
+        <v>25000000</v>
+      </c>
+      <c r="J181" t="str">
+        <v>운영지원처</v>
+      </c>
+      <c r="K181" t="str">
+        <v>노경태</v>
+      </c>
+      <c r="L181" t="str">
+        <v>02-3488-6123</v>
+      </c>
+      <c r="M181" t="str">
+        <v>신규</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="str">
+        <v>979</v>
+      </c>
+      <c r="B182" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C182" t="str">
+        <v>가톨릭대학교 산학협력단</v>
+      </c>
+      <c r="D182" t="str">
+        <v>2024년 06월</v>
+      </c>
+      <c r="E182" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="F182" t="str">
+        <v>제한경쟁</v>
+      </c>
+      <c r="G182" t="str">
+        <v>감염병 환자의사결정지원시스템(PDSS) 연계 콘텐츠 제공에 활용할 개방형 화상 기술 개발</v>
+      </c>
+      <c r="H182" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="I182">
+        <v>161000000</v>
+      </c>
+      <c r="J182" t="str">
+        <v>연구관리팀</v>
+      </c>
+      <c r="K182" t="str">
+        <v>유상민</v>
+      </c>
+      <c r="L182" t="str">
+        <v>02-3147-9366</v>
+      </c>
+      <c r="M182" t="str">
+        <v>신규</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="str">
+        <v>982</v>
+      </c>
+      <c r="B183" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C183" t="str">
+        <v>국토교통부 익산지방국토관리청</v>
+      </c>
+      <c r="D183" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="E183" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="F183" t="str">
+        <v>일반경쟁</v>
+      </c>
+      <c r="G183" t="str">
+        <v>2024년 호남권 교량 IoT 계측시스템 설치용역</v>
+      </c>
+      <c r="H183" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="I183">
+        <v>1620000000</v>
+      </c>
+      <c r="J183" t="str">
+        <v>지역협력과</v>
+      </c>
+      <c r="K183" t="str">
+        <v>김연주</v>
+      </c>
+      <c r="L183" t="str">
+        <v>063-850-9151</v>
+      </c>
+      <c r="M183" t="str">
+        <v>신규</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:M9"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:M183"/>
   </ignoredErrors>
 </worksheet>
 </file>